--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10559C9-D23B-4C4E-A086-8FB356A25176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CCFE42-DC2C-B54C-9A27-7F00327CDA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16580" windowHeight="12760" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29980" windowHeight="14720" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -113,13 +113,37 @@
   </si>
   <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t>НО № 10</t>
+  </si>
+  <si>
+    <t>НО № 4</t>
+  </si>
+  <si>
+    <t>НО № 5 - ИЦ</t>
+  </si>
+  <si>
+    <t>НО № 7</t>
+  </si>
+  <si>
+    <t>НО № 8</t>
+  </si>
+  <si>
+    <t>НО № 9</t>
+  </si>
+  <si>
+    <t>НО СНИОКР и ИС</t>
+  </si>
+  <si>
+    <t>ОКС</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -135,6 +159,11 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -239,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -268,6 +297,15 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -280,14 +318,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,7 +674,9 @@
   </sheetPr>
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -684,75 +727,75 @@
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="12"/>
+      <c r="N7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="12"/>
+      <c r="P7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="12"/>
+      <c r="T7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14" t="s">
+      <c r="U7" s="12"/>
+      <c r="V7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14" t="s">
+      <c r="W7" s="12"/>
+      <c r="X7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14" t="s">
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14" t="s">
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14" t="s">
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AE7" s="14"/>
+      <c r="AE7" s="12"/>
       <c r="AF7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="4" t="s">
         <v>19</v>
       </c>
@@ -836,18 +879,18 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="5">
         <v>2565491.31</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
+      <c r="G9" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H9" s="6">
         <v>0</v>
@@ -926,18 +969,18 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="5">
         <v>630595.83999999997</v>
       </c>
-      <c r="G10" s="5">
-        <v>236302.87</v>
+      <c r="G10" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="H10" s="5">
         <v>27856.74</v>
@@ -1016,18 +1059,18 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="5">
         <v>30084.16</v>
       </c>
-      <c r="G11" s="5">
-        <v>22498.46</v>
+      <c r="G11" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="H11" s="5">
         <v>2323.5300000000002</v>
@@ -1106,18 +1149,18 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="5">
         <v>1821454.47</v>
       </c>
-      <c r="G12" s="5">
-        <v>874810.4</v>
+      <c r="G12" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="H12" s="5">
         <v>127326.99</v>
@@ -1196,18 +1239,18 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="5">
         <v>527062.18000000005</v>
       </c>
-      <c r="G13" s="5">
-        <v>163280.98000000001</v>
+      <c r="G13" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="H13" s="5">
         <v>18486.099999999999</v>
@@ -1286,18 +1329,18 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="5">
         <v>911113.67</v>
       </c>
-      <c r="G14" s="5">
-        <v>56266.75</v>
+      <c r="G14" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="H14" s="5">
         <v>3173.02</v>
@@ -1376,18 +1419,18 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="5">
         <v>2432.5500000000002</v>
       </c>
-      <c r="G15" s="5">
-        <v>2326.86</v>
+      <c r="G15" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>89.95</v>
@@ -1466,18 +1509,18 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="7">
         <v>9.01</v>
       </c>
-      <c r="G16" s="7">
-        <v>9.01</v>
+      <c r="G16" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
@@ -1556,13 +1599,13 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="8">
         <v>6488243.1900000004</v>
       </c>
@@ -1647,14 +1690,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB7:AC7"/>
@@ -1670,6 +1705,14 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CCFE42-DC2C-B54C-9A27-7F00327CDA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22230F44-0854-854F-B533-CC8152F4FB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29980" windowHeight="14720" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="3380" windowWidth="23560" windowHeight="14300" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -31,7 +31,10 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 08.09.2022</t>
+    <t>Граница для факта: 28.09.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 27.09.2022</t>
   </si>
   <si>
     <t>Темодержатель</t>
@@ -143,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -153,19 +156,12 @@
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -268,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -317,18 +313,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,10 +656,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A2:AF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -690,7 +674,7 @@
     <col min="8" max="21" width="14" style="1" customWidth="1"/>
     <col min="22" max="23" width="12.75" style="1" customWidth="1"/>
     <col min="24" max="24" width="14" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.75" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.75" style="1" customWidth="1"/>
     <col min="26" max="26" width="14" style="1" customWidth="1"/>
     <col min="27" max="27" width="8.25" style="1" customWidth="1"/>
     <col min="28" max="28" width="14" style="1" customWidth="1"/>
@@ -700,1025 +684,1031 @@
     <col min="32" max="32" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+    <row r="2" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" collapsed="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+    <row r="6" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12" t="s">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="K9" s="12"/>
+      <c r="L9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12" t="s">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12" t="s">
+      <c r="O9" s="12"/>
+      <c r="P9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12" t="s">
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12" t="s">
+      <c r="S9" s="12"/>
+      <c r="T9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12" t="s">
+      <c r="U9" s="12"/>
+      <c r="V9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12" t="s">
+      <c r="W9" s="12"/>
+      <c r="X9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12" t="s">
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12" t="s">
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="4" t="s">
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="4" t="s">
+    <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="G10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="I10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="K10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="4" t="s">
+      <c r="M10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="4" t="s">
+      <c r="O10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="4" t="s">
+      <c r="Q10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="4" t="s">
+      <c r="S10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W8" s="4" t="s">
+      <c r="U10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y8" s="4" t="s">
+      <c r="W10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA8" s="4" t="s">
+      <c r="Y10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AB8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AA10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AD8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AC10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AF8" s="4" t="s">
+      <c r="AE10" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="AF10" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="5">
-        <v>2565491.31</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>0</v>
-      </c>
-      <c r="R9" s="6">
-        <v>0</v>
-      </c>
-      <c r="S9" s="6">
-        <v>0</v>
-      </c>
-      <c r="T9" s="6">
-        <v>0</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0</v>
-      </c>
-      <c r="V9" s="6">
-        <v>0</v>
-      </c>
-      <c r="W9" s="6">
-        <v>0</v>
-      </c>
-      <c r="X9" s="5">
-        <v>30051.48</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="5">
-        <v>65647.03</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>2469792.81</v>
-      </c>
-      <c r="AE9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>1879415.19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="5">
-        <v>630595.83999999997</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="5">
-        <v>27856.74</v>
-      </c>
-      <c r="I10" s="5">
-        <v>27856.74</v>
-      </c>
-      <c r="J10" s="5">
-        <v>26411.34</v>
-      </c>
-      <c r="K10" s="5">
-        <v>26411.34</v>
-      </c>
-      <c r="L10" s="5">
-        <v>41326.01</v>
-      </c>
-      <c r="M10" s="5">
-        <v>41326.01</v>
-      </c>
-      <c r="N10" s="5">
-        <v>26598.12</v>
-      </c>
-      <c r="O10" s="5">
-        <v>26601.66</v>
-      </c>
-      <c r="P10" s="5">
-        <v>24326.26</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>24326.26</v>
-      </c>
-      <c r="R10" s="5">
-        <v>24456.97</v>
-      </c>
-      <c r="S10" s="5">
-        <v>24456.97</v>
-      </c>
-      <c r="T10" s="5">
-        <v>35130.06</v>
-      </c>
-      <c r="U10" s="5">
-        <v>35126.519999999997</v>
-      </c>
-      <c r="V10" s="5">
-        <v>23946.49</v>
-      </c>
-      <c r="W10" s="5">
-        <v>23946.49</v>
-      </c>
-      <c r="X10" s="5">
-        <v>24127.33</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>6250.88</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>169165.24</v>
-      </c>
-      <c r="AA10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="5">
-        <v>101204.54</v>
-      </c>
-      <c r="AC10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="5">
-        <v>106046.76</v>
-      </c>
-      <c r="AE10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="5">
-        <v>549632.81000000006</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
-        <v>24</v>
+      <c r="A11" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="5">
-        <v>30084.16</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="5">
-        <v>2323.5300000000002</v>
-      </c>
-      <c r="I11" s="5">
-        <v>2323.5300000000002</v>
-      </c>
-      <c r="J11" s="5">
-        <v>2284.37</v>
-      </c>
-      <c r="K11" s="5">
-        <v>2284.37</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1632.7</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1632.7</v>
-      </c>
-      <c r="N11" s="5">
-        <v>4690.58</v>
-      </c>
-      <c r="O11" s="5">
-        <v>4690.58</v>
-      </c>
-      <c r="P11" s="5">
-        <v>2736.81</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>2736.81</v>
-      </c>
-      <c r="R11" s="5">
-        <v>2533.5300000000002</v>
-      </c>
-      <c r="S11" s="5">
-        <v>2533.5300000000002</v>
-      </c>
-      <c r="T11" s="5">
-        <v>3243.72</v>
-      </c>
-      <c r="U11" s="5">
-        <v>3243.72</v>
-      </c>
-      <c r="V11" s="5">
-        <v>3053.22</v>
-      </c>
-      <c r="W11" s="5">
-        <v>3053.22</v>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1190.3699999999999</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <v>0</v>
       </c>
       <c r="X11" s="5">
-        <v>1590.56</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="5">
-        <v>1590.56</v>
+        <v>30051.48</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>1190.3699999999999</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>0</v>
       </c>
       <c r="AA11" s="6">
         <v>0</v>
       </c>
       <c r="AB11" s="5">
-        <v>1642.91</v>
+        <v>65647.03</v>
       </c>
       <c r="AC11" s="6">
         <v>0</v>
       </c>
       <c r="AD11" s="5">
-        <v>2761.67</v>
+        <v>2469792.81</v>
       </c>
       <c r="AE11" s="6">
         <v>0</v>
       </c>
       <c r="AF11" s="5">
-        <v>22204.99</v>
+        <v>1879415.19</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
-        <v>25</v>
+      <c r="A12" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="5">
-        <v>1821454.47</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>34</v>
+      <c r="F12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="5">
+        <v>247766.89</v>
       </c>
       <c r="H12" s="5">
-        <v>127326.99</v>
+        <v>27856.74</v>
       </c>
       <c r="I12" s="5">
-        <v>127326.99</v>
+        <v>27856.74</v>
       </c>
       <c r="J12" s="5">
-        <v>110138.6</v>
+        <v>26411.34</v>
       </c>
       <c r="K12" s="5">
-        <v>110138.6</v>
+        <v>26411.34</v>
       </c>
       <c r="L12" s="5">
-        <v>117468.67</v>
+        <v>41326.01</v>
       </c>
       <c r="M12" s="5">
-        <v>117468.67</v>
+        <v>41326.01</v>
       </c>
       <c r="N12" s="5">
-        <v>118679.02</v>
+        <v>26598.12</v>
       </c>
       <c r="O12" s="5">
-        <v>118679.02</v>
+        <v>26601.66</v>
       </c>
       <c r="P12" s="5">
-        <v>117459.25</v>
+        <v>24326.26</v>
       </c>
       <c r="Q12" s="5">
-        <v>117459.25</v>
+        <v>24326.26</v>
       </c>
       <c r="R12" s="5">
-        <v>116723.53</v>
+        <v>24456.97</v>
       </c>
       <c r="S12" s="5">
-        <v>116723.53</v>
+        <v>24456.97</v>
       </c>
       <c r="T12" s="5">
-        <v>102878.35</v>
+        <v>35130.06</v>
       </c>
       <c r="U12" s="5">
-        <v>102878.35</v>
+        <v>35126.519999999997</v>
       </c>
       <c r="V12" s="5">
-        <v>62635.98</v>
+        <v>23946.49</v>
       </c>
       <c r="W12" s="5">
-        <v>64135.98</v>
+        <v>23946.49</v>
       </c>
       <c r="X12" s="5">
-        <v>649785.71</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>0</v>
+        <v>31675.74</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>17714.900000000001</v>
       </c>
       <c r="Z12" s="5">
-        <v>99895.5</v>
+        <v>166394.82999999999</v>
       </c>
       <c r="AA12" s="6">
         <v>0</v>
       </c>
       <c r="AB12" s="5">
-        <v>106323.71</v>
+        <v>99836.57</v>
       </c>
       <c r="AC12" s="6">
         <v>0</v>
       </c>
       <c r="AD12" s="5">
-        <v>92139.15</v>
+        <v>102289.17</v>
       </c>
       <c r="AE12" s="6">
         <v>0</v>
       </c>
       <c r="AF12" s="5">
-        <v>1283104.06</v>
+        <v>549973.62</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
-        <v>26</v>
+      <c r="A13" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="5">
-        <v>527062.18000000005</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>35</v>
+      <c r="F13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="5">
+        <v>22719.14</v>
       </c>
       <c r="H13" s="5">
-        <v>18486.099999999999</v>
+        <v>2323.5300000000002</v>
       </c>
       <c r="I13" s="5">
-        <v>18486.099999999999</v>
+        <v>2323.5300000000002</v>
       </c>
       <c r="J13" s="5">
-        <v>11245.6</v>
+        <v>2284.37</v>
       </c>
       <c r="K13" s="5">
-        <v>11245.6</v>
+        <v>2284.37</v>
       </c>
       <c r="L13" s="5">
-        <v>24544</v>
+        <v>1632.7</v>
       </c>
       <c r="M13" s="5">
-        <v>24544</v>
+        <v>1632.7</v>
       </c>
       <c r="N13" s="5">
-        <v>16315</v>
+        <v>4690.58</v>
       </c>
       <c r="O13" s="5">
-        <v>16315</v>
+        <v>4690.58</v>
       </c>
       <c r="P13" s="5">
-        <v>45354</v>
+        <v>2736.81</v>
       </c>
       <c r="Q13" s="5">
-        <v>45354</v>
+        <v>2736.81</v>
       </c>
       <c r="R13" s="5">
-        <v>40161</v>
+        <v>2533.5300000000002</v>
       </c>
       <c r="S13" s="5">
-        <v>40161</v>
+        <v>2533.5300000000002</v>
       </c>
       <c r="T13" s="5">
-        <v>5046.28</v>
+        <v>3243.72</v>
       </c>
       <c r="U13" s="5">
-        <v>5046.28</v>
+        <v>3243.72</v>
       </c>
       <c r="V13" s="5">
-        <v>2129</v>
+        <v>3221.56</v>
       </c>
       <c r="W13" s="5">
-        <v>2129</v>
+        <v>3221.56</v>
       </c>
       <c r="X13" s="5">
-        <v>26758.799999999999</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>0</v>
+        <v>1642.91</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>52.35</v>
       </c>
       <c r="Z13" s="5">
-        <v>243764</v>
+        <v>1590.56</v>
       </c>
       <c r="AA13" s="6">
         <v>0</v>
       </c>
       <c r="AB13" s="5">
-        <v>85097.4</v>
+        <v>1643.29</v>
       </c>
       <c r="AC13" s="6">
         <v>0</v>
       </c>
       <c r="AD13" s="5">
-        <v>8161</v>
+        <v>2702.57</v>
       </c>
       <c r="AE13" s="6">
         <v>0</v>
       </c>
       <c r="AF13" s="5">
-        <v>467404.48</v>
+        <v>23053.57</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
-        <v>27</v>
+      <c r="A14" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="5">
-        <v>911113.67</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>36</v>
+      <c r="F14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="5">
+        <v>938653.26</v>
       </c>
       <c r="H14" s="5">
-        <v>3173.02</v>
+        <v>127326.99</v>
       </c>
       <c r="I14" s="5">
-        <v>3173.02</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
+        <v>127326.99</v>
+      </c>
+      <c r="J14" s="5">
+        <v>110138.6</v>
+      </c>
+      <c r="K14" s="5">
+        <v>110138.6</v>
       </c>
       <c r="L14" s="5">
-        <v>21541.13</v>
+        <v>117468.67</v>
       </c>
       <c r="M14" s="5">
-        <v>21541.13</v>
+        <v>117468.67</v>
       </c>
       <c r="N14" s="5">
-        <v>4590.3999999999996</v>
+        <v>118679.02</v>
       </c>
       <c r="O14" s="5">
-        <v>4590.3999999999996</v>
+        <v>118679.02</v>
       </c>
       <c r="P14" s="5">
-        <v>4573.8</v>
+        <v>117459.25</v>
       </c>
       <c r="Q14" s="5">
-        <v>4573.8</v>
-      </c>
-      <c r="R14" s="7">
-        <v>607.71</v>
-      </c>
-      <c r="S14" s="7">
-        <v>607.71</v>
+        <v>117459.25</v>
+      </c>
+      <c r="R14" s="5">
+        <v>116723.53</v>
+      </c>
+      <c r="S14" s="5">
+        <v>116723.53</v>
       </c>
       <c r="T14" s="5">
-        <v>21780.69</v>
+        <v>102878.35</v>
       </c>
       <c r="U14" s="5">
-        <v>21780.69</v>
-      </c>
-      <c r="V14" s="6">
-        <v>0</v>
-      </c>
-      <c r="W14" s="6">
-        <v>0</v>
+        <v>102878.35</v>
+      </c>
+      <c r="V14" s="5">
+        <v>64135.98</v>
+      </c>
+      <c r="W14" s="5">
+        <v>64135.98</v>
       </c>
       <c r="X14" s="5">
-        <v>17300.25</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>0</v>
+        <v>539625.46</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>63842.86</v>
       </c>
       <c r="Z14" s="5">
-        <v>42086.9</v>
+        <v>125747.59</v>
       </c>
       <c r="AA14" s="6">
         <v>0</v>
       </c>
       <c r="AB14" s="5">
-        <v>382406.35</v>
+        <v>149613.18</v>
       </c>
       <c r="AC14" s="6">
         <v>0</v>
       </c>
       <c r="AD14" s="5">
-        <v>413053.41</v>
+        <v>133796.87</v>
       </c>
       <c r="AE14" s="6">
         <v>0</v>
       </c>
       <c r="AF14" s="5">
-        <v>726347.76</v>
+        <v>1316820.02</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
-        <v>28</v>
+    <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="5">
-        <v>2432.5500000000002</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="7">
-        <v>89.95</v>
-      </c>
-      <c r="I15" s="7">
-        <v>89.95</v>
-      </c>
-      <c r="J15" s="7">
-        <v>78.12</v>
-      </c>
-      <c r="K15" s="7">
-        <v>78.12</v>
-      </c>
-      <c r="L15" s="7">
-        <v>342.71</v>
-      </c>
-      <c r="M15" s="7">
-        <v>342.71</v>
-      </c>
-      <c r="N15" s="7">
-        <v>281.45999999999998</v>
-      </c>
-      <c r="O15" s="7">
-        <v>281.45999999999998</v>
-      </c>
-      <c r="P15" s="7">
-        <v>626.92999999999995</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>626.92999999999995</v>
-      </c>
-      <c r="R15" s="7">
-        <v>239.09</v>
-      </c>
-      <c r="S15" s="7">
-        <v>239.09</v>
-      </c>
-      <c r="T15" s="7">
-        <v>348.73</v>
-      </c>
-      <c r="U15" s="7">
-        <v>348.73</v>
-      </c>
-      <c r="V15" s="7">
-        <v>319.87</v>
-      </c>
-      <c r="W15" s="7">
-        <v>319.87</v>
-      </c>
-      <c r="X15" s="7">
-        <v>105.69</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="6">
-        <v>0</v>
+      <c r="F15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="5">
+        <v>164425.38</v>
+      </c>
+      <c r="H15" s="5">
+        <v>18486.099999999999</v>
+      </c>
+      <c r="I15" s="5">
+        <v>18486.099999999999</v>
+      </c>
+      <c r="J15" s="5">
+        <v>11245.6</v>
+      </c>
+      <c r="K15" s="5">
+        <v>11245.6</v>
+      </c>
+      <c r="L15" s="5">
+        <v>24544</v>
+      </c>
+      <c r="M15" s="5">
+        <v>24544</v>
+      </c>
+      <c r="N15" s="5">
+        <v>16315</v>
+      </c>
+      <c r="O15" s="5">
+        <v>16315</v>
+      </c>
+      <c r="P15" s="5">
+        <v>45354</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>45354</v>
+      </c>
+      <c r="R15" s="5">
+        <v>40161</v>
+      </c>
+      <c r="S15" s="5">
+        <v>40161</v>
+      </c>
+      <c r="T15" s="5">
+        <v>5046.28</v>
+      </c>
+      <c r="U15" s="5">
+        <v>5046.28</v>
+      </c>
+      <c r="V15" s="5">
+        <v>2129</v>
+      </c>
+      <c r="W15" s="5">
+        <v>2129</v>
+      </c>
+      <c r="X15" s="5">
+        <v>21358.799999999999</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>1144.4000000000001</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>243764</v>
       </c>
       <c r="AA15" s="6">
         <v>0</v>
       </c>
-      <c r="AB15" s="6">
-        <v>0</v>
+      <c r="AB15" s="5">
+        <v>85097.4</v>
       </c>
       <c r="AC15" s="6">
         <v>0</v>
       </c>
-      <c r="AD15" s="6">
-        <v>0</v>
+      <c r="AD15" s="5">
+        <v>8161</v>
       </c>
       <c r="AE15" s="6">
         <v>0</v>
       </c>
       <c r="AF15" s="5">
-        <v>2432.5500000000002</v>
+        <v>462004.47999999998</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
-        <v>29</v>
+      <c r="A16" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="7">
+      <c r="F16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="5">
+        <v>56266.75</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3173.02</v>
+      </c>
+      <c r="I16" s="5">
+        <v>3173.02</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>21541.13</v>
+      </c>
+      <c r="M16" s="5">
+        <v>21541.13</v>
+      </c>
+      <c r="N16" s="5">
+        <v>4590.3999999999996</v>
+      </c>
+      <c r="O16" s="5">
+        <v>4590.3999999999996</v>
+      </c>
+      <c r="P16" s="5">
+        <v>4573.8</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>4573.8</v>
+      </c>
+      <c r="R16" s="7">
+        <v>607.71</v>
+      </c>
+      <c r="S16" s="7">
+        <v>607.71</v>
+      </c>
+      <c r="T16" s="5">
+        <v>21780.69</v>
+      </c>
+      <c r="U16" s="5">
+        <v>21780.69</v>
+      </c>
+      <c r="V16" s="6">
+        <v>0</v>
+      </c>
+      <c r="W16" s="6">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5">
+        <v>17300.25</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>42086.9</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>382406.35</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>413053.41</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>726347.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2804.8</v>
+      </c>
+      <c r="H17" s="7">
+        <v>89.95</v>
+      </c>
+      <c r="I17" s="7">
+        <v>89.95</v>
+      </c>
+      <c r="J17" s="7">
+        <v>78.12</v>
+      </c>
+      <c r="K17" s="7">
+        <v>78.12</v>
+      </c>
+      <c r="L17" s="7">
+        <v>342.71</v>
+      </c>
+      <c r="M17" s="7">
+        <v>342.71</v>
+      </c>
+      <c r="N17" s="7">
+        <v>281.45999999999998</v>
+      </c>
+      <c r="O17" s="7">
+        <v>281.45999999999998</v>
+      </c>
+      <c r="P17" s="7">
+        <v>626.92999999999995</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>626.92999999999995</v>
+      </c>
+      <c r="R17" s="7">
+        <v>239.09</v>
+      </c>
+      <c r="S17" s="7">
+        <v>239.09</v>
+      </c>
+      <c r="T17" s="7">
+        <v>348.73</v>
+      </c>
+      <c r="U17" s="7">
+        <v>348.73</v>
+      </c>
+      <c r="V17" s="7">
+        <v>319.87</v>
+      </c>
+      <c r="W17" s="7">
+        <v>319.87</v>
+      </c>
+      <c r="X17" s="7">
+        <v>477.94</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>477.94</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>2804.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="7">
         <v>9.01</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="7">
         <v>9.01</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S18" s="7">
         <v>9.01</v>
       </c>
-      <c r="T16" s="6">
-        <v>0</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0</v>
-      </c>
-      <c r="V16" s="6">
-        <v>0</v>
-      </c>
-      <c r="W16" s="6">
-        <v>0</v>
-      </c>
-      <c r="X16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="6">
+      <c r="T18" s="6">
+        <v>0</v>
+      </c>
+      <c r="U18" s="6">
+        <v>0</v>
+      </c>
+      <c r="V18" s="6">
+        <v>0</v>
+      </c>
+      <c r="W18" s="6">
+        <v>0</v>
+      </c>
+      <c r="X18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="8">
-        <v>6488243.1900000004</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1355495.34</v>
-      </c>
-      <c r="H17" s="8">
+    <row r="19" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="8">
+        <v>6485168.8799999999</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1433835.61</v>
+      </c>
+      <c r="H19" s="8">
         <v>179256.33</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I19" s="8">
         <v>179256.33</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J19" s="8">
         <v>150158.03</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K19" s="8">
         <v>150158.03</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L19" s="8">
         <v>206855.23</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M19" s="8">
         <v>206855.23</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N19" s="8">
         <v>171154.58</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O19" s="8">
         <v>171158.12</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P19" s="8">
         <v>195077.05</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q19" s="8">
         <v>195077.05</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R19" s="8">
         <v>184730.85</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S19" s="8">
         <v>184730.85</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T19" s="8">
         <v>168427.83</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U19" s="8">
         <v>168424.29</v>
       </c>
-      <c r="V17" s="8">
-        <v>92084.56</v>
-      </c>
-      <c r="W17" s="8">
-        <v>93584.56</v>
-      </c>
-      <c r="X17" s="8">
-        <v>749719.81</v>
-      </c>
-      <c r="Y17" s="8">
-        <v>6250.88</v>
-      </c>
-      <c r="Z17" s="8">
-        <v>556502.19999999995</v>
-      </c>
-      <c r="AA17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="8">
-        <v>742321.93</v>
-      </c>
-      <c r="AC17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="8">
-        <v>3091954.8</v>
-      </c>
-      <c r="AE17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="8">
-        <v>4930541.84</v>
+      <c r="V19" s="8">
+        <v>93752.89</v>
+      </c>
+      <c r="W19" s="8">
+        <v>93752.89</v>
+      </c>
+      <c r="X19" s="8">
+        <v>642132.56000000006</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>84422.82</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>579583.88</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="8">
+        <v>784243.82</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="8">
+        <v>3129795.83</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="8">
+        <v>4960419.4400000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="A7:E8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 07.09.2022 13:52:36 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 27.09.2022 11:32:07 Пользователь: Михненко Мария Александровна</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22230F44-0854-854F-B533-CC8152F4FB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE965A9B-5119-8446-8AD0-C34DB0CCE899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="3380" windowWidth="23560" windowHeight="14300" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="2620" windowWidth="23280" windowHeight="12540" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -28,13 +39,13 @@
     <t>Параметры:</t>
   </si>
   <si>
-    <t>Период отчета: 01.01.2022 - 31.12.2022</t>
-  </si>
-  <si>
-    <t>Граница для факта: 28.09.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 27.09.2022</t>
+    <t>Период отчета: 01.01.2022 - 30.09.2022</t>
+  </si>
+  <si>
+    <t>Граница для факта: 04.10.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 03.10.2022</t>
   </si>
   <si>
     <t>Темодержатель</t>
@@ -89,6 +100,9 @@
   </si>
   <si>
     <t>Общий объем оплаченных денежных средств по договору (контракту) (тыс.руб. без НДС)</t>
+  </si>
+  <si>
+    <t>Метрологический отдел</t>
   </si>
   <si>
     <t>Научное отделение № 10 (НО № 10)</t>
@@ -264,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -276,6 +290,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -293,15 +310,6 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -313,6 +321,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,10 +673,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AF19"/>
+  <dimension ref="A2:AF20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -669,18 +686,11 @@
     <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.25" style="1" customWidth="1"/>
     <col min="8" max="21" width="14" style="1" customWidth="1"/>
     <col min="22" max="23" width="12.75" style="1" customWidth="1"/>
-    <col min="24" max="24" width="14" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.75" style="1" customWidth="1"/>
-    <col min="26" max="26" width="14" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.25" style="1" customWidth="1"/>
-    <col min="28" max="28" width="14" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.25" style="1" customWidth="1"/>
-    <col min="30" max="30" width="15.25" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.25" style="1" customWidth="1"/>
+    <col min="24" max="25" width="14" style="1" customWidth="1"/>
+    <col min="26" max="31" width="8.25" style="1" customWidth="1"/>
     <col min="32" max="32" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -717,75 +727,75 @@
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12" t="s">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12" t="s">
+      <c r="M9" s="15"/>
+      <c r="N9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12" t="s">
+      <c r="O9" s="15"/>
+      <c r="P9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12" t="s">
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12" t="s">
+      <c r="S9" s="15"/>
+      <c r="T9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12" t="s">
+      <c r="U9" s="15"/>
+      <c r="V9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12" t="s">
+      <c r="W9" s="15"/>
+      <c r="X9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12" t="s">
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12" t="s">
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12" t="s">
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AE9" s="12"/>
+      <c r="AE9" s="15"/>
       <c r="AF9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
@@ -869,846 +879,937 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1190.3699999999999</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="6">
-        <v>0</v>
-      </c>
-      <c r="S11" s="6">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6">
-        <v>0</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0</v>
-      </c>
-      <c r="V11" s="6">
-        <v>0</v>
-      </c>
-      <c r="W11" s="6">
-        <v>0</v>
-      </c>
-      <c r="X11" s="5">
-        <v>30051.48</v>
-      </c>
-      <c r="Y11" s="5">
-        <v>1190.3699999999999</v>
-      </c>
-      <c r="Z11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="5">
-        <v>65647.03</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="5">
-        <v>2469792.81</v>
-      </c>
-      <c r="AE11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="5">
-        <v>1879415.19</v>
+        <v>23</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1682.07</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <v>0</v>
+      </c>
+      <c r="W11" s="7">
+        <v>0</v>
+      </c>
+      <c r="X11" s="6">
+        <v>1682.07</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>1682.07</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="5" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="5">
-        <v>247766.89</v>
-      </c>
-      <c r="H12" s="5">
-        <v>27856.74</v>
-      </c>
-      <c r="I12" s="5">
-        <v>27856.74</v>
-      </c>
-      <c r="J12" s="5">
-        <v>26411.34</v>
-      </c>
-      <c r="K12" s="5">
-        <v>26411.34</v>
-      </c>
-      <c r="L12" s="5">
-        <v>41326.01</v>
-      </c>
-      <c r="M12" s="5">
-        <v>41326.01</v>
-      </c>
-      <c r="N12" s="5">
-        <v>26598.12</v>
-      </c>
-      <c r="O12" s="5">
-        <v>26601.66</v>
-      </c>
-      <c r="P12" s="5">
-        <v>24326.26</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>24326.26</v>
-      </c>
-      <c r="R12" s="5">
-        <v>24456.97</v>
-      </c>
-      <c r="S12" s="5">
-        <v>24456.97</v>
-      </c>
-      <c r="T12" s="5">
-        <v>35130.06</v>
-      </c>
-      <c r="U12" s="5">
-        <v>35126.519999999997</v>
-      </c>
-      <c r="V12" s="5">
-        <v>23946.49</v>
-      </c>
-      <c r="W12" s="5">
-        <v>23946.49</v>
-      </c>
-      <c r="X12" s="5">
-        <v>31675.74</v>
-      </c>
-      <c r="Y12" s="5">
-        <v>17714.900000000001</v>
-      </c>
-      <c r="Z12" s="5">
-        <v>166394.82999999999</v>
-      </c>
-      <c r="AA12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="5">
-        <v>99836.57</v>
-      </c>
-      <c r="AC12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="5">
-        <v>102289.17</v>
-      </c>
-      <c r="AE12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="5">
-        <v>549973.62</v>
+      <c r="G12" s="6">
+        <v>1190.3699999999999</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
+        <v>0</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0</v>
+      </c>
+      <c r="W12" s="7">
+        <v>0</v>
+      </c>
+      <c r="X12" s="6">
+        <v>1190.3699999999999</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>1190.3699999999999</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>1190.3699999999999</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="5" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="5">
-        <v>22719.14</v>
-      </c>
-      <c r="H13" s="5">
-        <v>2323.5300000000002</v>
-      </c>
-      <c r="I13" s="5">
-        <v>2323.5300000000002</v>
-      </c>
-      <c r="J13" s="5">
-        <v>2284.37</v>
-      </c>
-      <c r="K13" s="5">
-        <v>2284.37</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1632.7</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1632.7</v>
-      </c>
-      <c r="N13" s="5">
-        <v>4690.58</v>
-      </c>
-      <c r="O13" s="5">
-        <v>4690.58</v>
-      </c>
-      <c r="P13" s="5">
-        <v>2736.81</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>2736.81</v>
-      </c>
-      <c r="R13" s="5">
-        <v>2533.5300000000002</v>
-      </c>
-      <c r="S13" s="5">
-        <v>2533.5300000000002</v>
-      </c>
-      <c r="T13" s="5">
-        <v>3243.72</v>
-      </c>
-      <c r="U13" s="5">
-        <v>3243.72</v>
-      </c>
-      <c r="V13" s="5">
-        <v>3221.56</v>
-      </c>
-      <c r="W13" s="5">
-        <v>3221.56</v>
-      </c>
-      <c r="X13" s="5">
-        <v>1642.91</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>52.35</v>
-      </c>
-      <c r="Z13" s="5">
-        <v>1590.56</v>
-      </c>
-      <c r="AA13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="5">
-        <v>1643.29</v>
-      </c>
-      <c r="AC13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="5">
-        <v>2702.57</v>
-      </c>
-      <c r="AE13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="5">
-        <v>23053.57</v>
+      <c r="G13" s="6">
+        <v>253788.08</v>
+      </c>
+      <c r="H13" s="6">
+        <v>27856.74</v>
+      </c>
+      <c r="I13" s="6">
+        <v>27856.74</v>
+      </c>
+      <c r="J13" s="6">
+        <v>26411.34</v>
+      </c>
+      <c r="K13" s="6">
+        <v>26411.34</v>
+      </c>
+      <c r="L13" s="6">
+        <v>41326.01</v>
+      </c>
+      <c r="M13" s="6">
+        <v>41326.01</v>
+      </c>
+      <c r="N13" s="6">
+        <v>26598.12</v>
+      </c>
+      <c r="O13" s="6">
+        <v>26601.66</v>
+      </c>
+      <c r="P13" s="6">
+        <v>24326.26</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>24326.26</v>
+      </c>
+      <c r="R13" s="6">
+        <v>24456.97</v>
+      </c>
+      <c r="S13" s="6">
+        <v>24456.97</v>
+      </c>
+      <c r="T13" s="6">
+        <v>35130.06</v>
+      </c>
+      <c r="U13" s="6">
+        <v>35126.519999999997</v>
+      </c>
+      <c r="V13" s="6">
+        <v>23946.49</v>
+      </c>
+      <c r="W13" s="6">
+        <v>23946.49</v>
+      </c>
+      <c r="X13" s="6">
+        <v>23736.1</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>23736.1</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>254146.42</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="5" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="5">
-        <v>938653.26</v>
-      </c>
-      <c r="H14" s="5">
-        <v>127326.99</v>
-      </c>
-      <c r="I14" s="5">
-        <v>127326.99</v>
-      </c>
-      <c r="J14" s="5">
-        <v>110138.6</v>
-      </c>
-      <c r="K14" s="5">
-        <v>110138.6</v>
-      </c>
-      <c r="L14" s="5">
-        <v>117468.67</v>
-      </c>
-      <c r="M14" s="5">
-        <v>117468.67</v>
-      </c>
-      <c r="N14" s="5">
-        <v>118679.02</v>
-      </c>
-      <c r="O14" s="5">
-        <v>118679.02</v>
-      </c>
-      <c r="P14" s="5">
-        <v>117459.25</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>117459.25</v>
-      </c>
-      <c r="R14" s="5">
-        <v>116723.53</v>
-      </c>
-      <c r="S14" s="5">
-        <v>116723.53</v>
-      </c>
-      <c r="T14" s="5">
-        <v>102878.35</v>
-      </c>
-      <c r="U14" s="5">
-        <v>102878.35</v>
-      </c>
-      <c r="V14" s="5">
-        <v>64135.98</v>
-      </c>
-      <c r="W14" s="5">
-        <v>64135.98</v>
-      </c>
-      <c r="X14" s="5">
-        <v>539625.46</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>63842.86</v>
-      </c>
-      <c r="Z14" s="5">
-        <v>125747.59</v>
-      </c>
-      <c r="AA14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="5">
-        <v>149613.18</v>
-      </c>
-      <c r="AC14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="5">
-        <v>133796.87</v>
-      </c>
-      <c r="AE14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="5">
-        <v>1316820.02</v>
+      <c r="G14" s="6">
+        <v>25464.57</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2323.5300000000002</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2323.5300000000002</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2284.37</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2284.37</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1632.7</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1632.7</v>
+      </c>
+      <c r="N14" s="6">
+        <v>4690.58</v>
+      </c>
+      <c r="O14" s="6">
+        <v>4690.58</v>
+      </c>
+      <c r="P14" s="6">
+        <v>2736.81</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>2736.81</v>
+      </c>
+      <c r="R14" s="6">
+        <v>2533.5300000000002</v>
+      </c>
+      <c r="S14" s="6">
+        <v>2533.5300000000002</v>
+      </c>
+      <c r="T14" s="6">
+        <v>3243.72</v>
+      </c>
+      <c r="U14" s="6">
+        <v>3243.72</v>
+      </c>
+      <c r="V14" s="6">
+        <v>3221.56</v>
+      </c>
+      <c r="W14" s="6">
+        <v>3221.56</v>
+      </c>
+      <c r="X14" s="6">
+        <v>2797.78</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>2797.78</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>22719.14</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="5" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="5">
-        <v>164425.38</v>
-      </c>
-      <c r="H15" s="5">
-        <v>18486.099999999999</v>
-      </c>
-      <c r="I15" s="5">
-        <v>18486.099999999999</v>
-      </c>
-      <c r="J15" s="5">
-        <v>11245.6</v>
-      </c>
-      <c r="K15" s="5">
-        <v>11245.6</v>
-      </c>
-      <c r="L15" s="5">
-        <v>24544</v>
-      </c>
-      <c r="M15" s="5">
-        <v>24544</v>
-      </c>
-      <c r="N15" s="5">
-        <v>16315</v>
-      </c>
-      <c r="O15" s="5">
-        <v>16315</v>
-      </c>
-      <c r="P15" s="5">
-        <v>45354</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>45354</v>
-      </c>
-      <c r="R15" s="5">
-        <v>40161</v>
-      </c>
-      <c r="S15" s="5">
-        <v>40161</v>
-      </c>
-      <c r="T15" s="5">
-        <v>5046.28</v>
-      </c>
-      <c r="U15" s="5">
-        <v>5046.28</v>
-      </c>
-      <c r="V15" s="5">
-        <v>2129</v>
-      </c>
-      <c r="W15" s="5">
-        <v>2129</v>
-      </c>
-      <c r="X15" s="5">
-        <v>21358.799999999999</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>1144.4000000000001</v>
-      </c>
-      <c r="Z15" s="5">
-        <v>243764</v>
-      </c>
-      <c r="AA15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="5">
-        <v>85097.4</v>
-      </c>
-      <c r="AC15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="5">
-        <v>8161</v>
-      </c>
-      <c r="AE15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="5">
-        <v>462004.47999999998</v>
+      <c r="G15" s="6">
+        <v>1077700.71</v>
+      </c>
+      <c r="H15" s="6">
+        <v>127326.99</v>
+      </c>
+      <c r="I15" s="6">
+        <v>127326.99</v>
+      </c>
+      <c r="J15" s="6">
+        <v>110138.6</v>
+      </c>
+      <c r="K15" s="6">
+        <v>110138.6</v>
+      </c>
+      <c r="L15" s="6">
+        <v>117468.67</v>
+      </c>
+      <c r="M15" s="6">
+        <v>117468.67</v>
+      </c>
+      <c r="N15" s="6">
+        <v>118679.02</v>
+      </c>
+      <c r="O15" s="6">
+        <v>118679.02</v>
+      </c>
+      <c r="P15" s="6">
+        <v>117459.25</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>117459.25</v>
+      </c>
+      <c r="R15" s="6">
+        <v>116723.53</v>
+      </c>
+      <c r="S15" s="6">
+        <v>116723.53</v>
+      </c>
+      <c r="T15" s="6">
+        <v>102878.35</v>
+      </c>
+      <c r="U15" s="6">
+        <v>102878.35</v>
+      </c>
+      <c r="V15" s="6">
+        <v>64135.98</v>
+      </c>
+      <c r="W15" s="6">
+        <v>64135.98</v>
+      </c>
+      <c r="X15" s="6">
+        <v>202890.31</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>202890.31</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>956250.73</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="5" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
+        <v>167477.78</v>
+      </c>
+      <c r="H16" s="6">
+        <v>18486.099999999999</v>
+      </c>
+      <c r="I16" s="6">
+        <v>18486.099999999999</v>
+      </c>
+      <c r="J16" s="6">
+        <v>11245.6</v>
+      </c>
+      <c r="K16" s="6">
+        <v>11245.6</v>
+      </c>
+      <c r="L16" s="6">
+        <v>24544</v>
+      </c>
+      <c r="M16" s="6">
+        <v>24544</v>
+      </c>
+      <c r="N16" s="6">
+        <v>16315</v>
+      </c>
+      <c r="O16" s="6">
+        <v>16315</v>
+      </c>
+      <c r="P16" s="6">
+        <v>45354</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>45354</v>
+      </c>
+      <c r="R16" s="6">
+        <v>40161</v>
+      </c>
+      <c r="S16" s="6">
+        <v>40161</v>
+      </c>
+      <c r="T16" s="6">
+        <v>5046.28</v>
+      </c>
+      <c r="U16" s="6">
+        <v>5046.28</v>
+      </c>
+      <c r="V16" s="6">
+        <v>2129</v>
+      </c>
+      <c r="W16" s="6">
+        <v>2129</v>
+      </c>
+      <c r="X16" s="6">
+        <v>4196.8</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>4196.8</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>167477.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="6">
         <v>56266.75</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H17" s="6">
         <v>3173.02</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I17" s="6">
         <v>3173.02</v>
       </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
         <v>21541.13</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M17" s="6">
         <v>21541.13</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N17" s="6">
         <v>4590.3999999999996</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O17" s="6">
         <v>4590.3999999999996</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P17" s="6">
         <v>4573.8</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q17" s="6">
         <v>4573.8</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R17" s="8">
         <v>607.71</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S17" s="8">
         <v>607.71</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T17" s="6">
         <v>21780.69</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U17" s="6">
         <v>21780.69</v>
       </c>
-      <c r="V16" s="6">
-        <v>0</v>
-      </c>
-      <c r="W16" s="6">
-        <v>0</v>
-      </c>
-      <c r="X16" s="5">
-        <v>17300.25</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="5">
-        <v>42086.9</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="5">
-        <v>382406.35</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="5">
-        <v>413053.41</v>
-      </c>
-      <c r="AE16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>726347.76</v>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0</v>
+      </c>
+      <c r="X17" s="8">
+        <v>50.21</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>53641.57</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="5">
+    <row r="18" spans="1:32" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="6">
         <v>2804.8</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H18" s="8">
         <v>89.95</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I18" s="8">
         <v>89.95</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J18" s="8">
         <v>78.12</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K18" s="8">
         <v>78.12</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L18" s="8">
         <v>342.71</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M18" s="8">
         <v>342.71</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N18" s="8">
         <v>281.45999999999998</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O18" s="8">
         <v>281.45999999999998</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P18" s="8">
         <v>626.92999999999995</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q18" s="8">
         <v>626.92999999999995</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R18" s="8">
         <v>239.09</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S18" s="8">
         <v>239.09</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T18" s="8">
         <v>348.73</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U18" s="8">
         <v>348.73</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V18" s="8">
         <v>319.87</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W18" s="8">
         <v>319.87</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X18" s="8">
         <v>477.94</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y18" s="8">
         <v>477.94</v>
       </c>
-      <c r="Z17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="5">
+      <c r="Z18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="6">
         <v>2804.8</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="7">
+    <row r="19" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="8">
         <v>9.01</v>
       </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7">
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
         <v>9.01</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S19" s="8">
         <v>9.01</v>
       </c>
-      <c r="T18" s="6">
-        <v>0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0</v>
-      </c>
-      <c r="V18" s="6">
-        <v>0</v>
-      </c>
-      <c r="W18" s="6">
-        <v>0</v>
-      </c>
-      <c r="X18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="6">
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="8">
-        <v>6485168.8799999999</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1433835.61</v>
-      </c>
-      <c r="H19" s="8">
+    <row r="20" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="9">
+        <v>1586434.35</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1586384.14</v>
+      </c>
+      <c r="H20" s="9">
         <v>179256.33</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I20" s="9">
         <v>179256.33</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J20" s="9">
         <v>150158.03</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K20" s="9">
         <v>150158.03</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L20" s="9">
         <v>206855.23</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M20" s="9">
         <v>206855.23</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N20" s="9">
         <v>171154.58</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O20" s="9">
         <v>171158.12</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P20" s="9">
         <v>195077.05</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q20" s="9">
         <v>195077.05</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R20" s="9">
         <v>184730.85</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S20" s="9">
         <v>184730.85</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T20" s="9">
         <v>168427.83</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U20" s="9">
         <v>168424.29</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V20" s="9">
         <v>93752.89</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W20" s="9">
         <v>93752.89</v>
       </c>
-      <c r="X19" s="8">
-        <v>642132.56000000006</v>
-      </c>
-      <c r="Y19" s="8">
-        <v>84422.82</v>
-      </c>
-      <c r="Z19" s="8">
-        <v>579583.88</v>
-      </c>
-      <c r="AA19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="8">
-        <v>784243.82</v>
-      </c>
-      <c r="AC19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="8">
-        <v>3129795.83</v>
-      </c>
-      <c r="AE19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="8">
-        <v>4960419.4400000004</v>
+      <c r="X20" s="9">
+        <v>237021.57</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>236971.36</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="9">
+        <v>1458230.81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
+  <mergeCells count="24">
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 27.09.2022 11:32:07 Пользователь: Михненко Мария Александровна</oddFooter>
+    <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 30 сентября 2022 г. страница &amp;P из &amp;N</oddHeader>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 03.10.2022 21:03:24 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0303045B-CF73-1942-B9A2-C53D2AD38E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98882B55-FE32-694D-908F-D3186046457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2620" windowWidth="23280" windowHeight="12540" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13100" yWindow="4000" windowWidth="34440" windowHeight="17820" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -39,13 +28,13 @@
     <t>Параметры:</t>
   </si>
   <si>
-    <t>Период отчета: 01.01.2022 - 30.09.2022</t>
-  </si>
-  <si>
-    <t>Граница для факта: 04.10.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 03.10.2022</t>
+    <t>Период отчета: 01.01.2022 - 31.12.2022</t>
+  </si>
+  <si>
+    <t>Граница для факта: 06.10.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 05.10.2022</t>
   </si>
   <si>
     <t>Темодержатель</t>
@@ -100,6 +89,9 @@
   </si>
   <si>
     <t>Общий объем оплаченных денежных средств по договору (контракту) (тыс.руб. без НДС)</t>
+  </si>
+  <si>
+    <t>Метрологический отдел</t>
   </si>
   <si>
     <t>Научное отделение № 10 (НО № 10)</t>
@@ -167,12 +159,14 @@
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -275,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -287,6 +281,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -304,15 +301,6 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -324,6 +312,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,10 +664,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AF19"/>
+  <dimension ref="A2:AF20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -683,8 +680,12 @@
     <col min="6" max="7" width="16.25" style="1" customWidth="1"/>
     <col min="8" max="21" width="14" style="1" customWidth="1"/>
     <col min="22" max="23" width="12.75" style="1" customWidth="1"/>
-    <col min="24" max="25" width="14" style="1" customWidth="1"/>
-    <col min="26" max="31" width="8.25" style="1" customWidth="1"/>
+    <col min="24" max="26" width="14" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.75" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.25" style="1" customWidth="1"/>
+    <col min="30" max="30" width="16.25" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.25" style="1" customWidth="1"/>
     <col min="32" max="32" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -696,8 +697,8 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" collapsed="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -707,13 +708,13 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
@@ -721,75 +722,75 @@
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12" t="s">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12" t="s">
+      <c r="M9" s="15"/>
+      <c r="N9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12" t="s">
+      <c r="O9" s="15"/>
+      <c r="P9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12" t="s">
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12" t="s">
+      <c r="S9" s="15"/>
+      <c r="T9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12" t="s">
+      <c r="U9" s="15"/>
+      <c r="V9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12" t="s">
+      <c r="W9" s="15"/>
+      <c r="X9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12" t="s">
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12" t="s">
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12" t="s">
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AE9" s="12"/>
+      <c r="AE9" s="15"/>
       <c r="AF9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
@@ -873,846 +874,937 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1190.3699999999999</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="6">
-        <v>0</v>
-      </c>
-      <c r="S11" s="6">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6">
-        <v>0</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0</v>
-      </c>
-      <c r="V11" s="6">
-        <v>0</v>
-      </c>
-      <c r="W11" s="6">
-        <v>0</v>
-      </c>
-      <c r="X11" s="5">
-        <v>1190.3699999999999</v>
-      </c>
-      <c r="Y11" s="5">
-        <v>1190.3699999999999</v>
-      </c>
-      <c r="Z11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="5">
-        <v>1190.3699999999999</v>
+        <v>23</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1682.07</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <v>0</v>
+      </c>
+      <c r="W11" s="7">
+        <v>0</v>
+      </c>
+      <c r="X11" s="6">
+        <v>1682.07</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>1682.07</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="5" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="5">
-        <v>253788.08</v>
-      </c>
-      <c r="H12" s="5">
-        <v>27856.74</v>
-      </c>
-      <c r="I12" s="5">
-        <v>27856.74</v>
-      </c>
-      <c r="J12" s="5">
-        <v>26411.34</v>
-      </c>
-      <c r="K12" s="5">
-        <v>26411.34</v>
-      </c>
-      <c r="L12" s="5">
-        <v>41326.01</v>
-      </c>
-      <c r="M12" s="5">
-        <v>41326.01</v>
-      </c>
-      <c r="N12" s="5">
-        <v>26598.12</v>
-      </c>
-      <c r="O12" s="5">
-        <v>26601.66</v>
-      </c>
-      <c r="P12" s="5">
-        <v>24326.26</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>24326.26</v>
-      </c>
-      <c r="R12" s="5">
-        <v>24456.97</v>
-      </c>
-      <c r="S12" s="5">
-        <v>24456.97</v>
-      </c>
-      <c r="T12" s="5">
-        <v>35130.06</v>
-      </c>
-      <c r="U12" s="5">
-        <v>35126.519999999997</v>
-      </c>
-      <c r="V12" s="5">
-        <v>23946.49</v>
-      </c>
-      <c r="W12" s="5">
-        <v>23946.49</v>
-      </c>
-      <c r="X12" s="5">
-        <v>23736.1</v>
-      </c>
-      <c r="Y12" s="5">
-        <v>23736.1</v>
-      </c>
-      <c r="Z12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="6">
+      <c r="G12" s="6">
+        <v>1190.3699999999999</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
+        <v>0</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0</v>
+      </c>
+      <c r="W12" s="7">
+        <v>0</v>
+      </c>
+      <c r="X12" s="6">
+        <v>1190.3699999999999</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>1190.3699999999999</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="7">
         <v>0</v>
       </c>
       <c r="AB12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="6">
+        <v>65647.03</v>
+      </c>
+      <c r="AC12" s="7">
         <v>0</v>
       </c>
       <c r="AD12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="5">
-        <v>254146.42</v>
+        <v>2494925.3199999998</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>1879415.19</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="5" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="5">
-        <v>25464.57</v>
-      </c>
-      <c r="H13" s="5">
-        <v>2323.5300000000002</v>
-      </c>
-      <c r="I13" s="5">
-        <v>2323.5300000000002</v>
-      </c>
-      <c r="J13" s="5">
-        <v>2284.37</v>
-      </c>
-      <c r="K13" s="5">
-        <v>2284.37</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1632.7</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1632.7</v>
-      </c>
-      <c r="N13" s="5">
-        <v>4690.58</v>
-      </c>
-      <c r="O13" s="5">
-        <v>4690.58</v>
-      </c>
-      <c r="P13" s="5">
-        <v>2736.81</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>2736.81</v>
-      </c>
-      <c r="R13" s="5">
-        <v>2533.5300000000002</v>
-      </c>
-      <c r="S13" s="5">
-        <v>2533.5300000000002</v>
-      </c>
-      <c r="T13" s="5">
-        <v>3243.72</v>
-      </c>
-      <c r="U13" s="5">
-        <v>3243.72</v>
-      </c>
-      <c r="V13" s="5">
-        <v>3221.56</v>
-      </c>
-      <c r="W13" s="5">
-        <v>3221.56</v>
-      </c>
-      <c r="X13" s="5">
-        <v>2797.78</v>
-      </c>
-      <c r="Y13" s="5">
-        <v>2797.78</v>
+      <c r="G13" s="6">
+        <v>268857.58</v>
+      </c>
+      <c r="H13" s="6">
+        <v>27856.74</v>
+      </c>
+      <c r="I13" s="6">
+        <v>27856.74</v>
+      </c>
+      <c r="J13" s="6">
+        <v>26411.34</v>
+      </c>
+      <c r="K13" s="6">
+        <v>26411.34</v>
+      </c>
+      <c r="L13" s="6">
+        <v>41326.01</v>
+      </c>
+      <c r="M13" s="6">
+        <v>41326.01</v>
+      </c>
+      <c r="N13" s="6">
+        <v>26598.12</v>
+      </c>
+      <c r="O13" s="6">
+        <v>26601.66</v>
+      </c>
+      <c r="P13" s="6">
+        <v>24326.26</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>24326.26</v>
+      </c>
+      <c r="R13" s="6">
+        <v>24456.97</v>
+      </c>
+      <c r="S13" s="6">
+        <v>24456.97</v>
+      </c>
+      <c r="T13" s="6">
+        <v>35130.06</v>
+      </c>
+      <c r="U13" s="6">
+        <v>35126.519999999997</v>
+      </c>
+      <c r="V13" s="6">
+        <v>23946.49</v>
+      </c>
+      <c r="W13" s="6">
+        <v>23946.49</v>
+      </c>
+      <c r="X13" s="6">
+        <v>23736.1</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>23736.1</v>
       </c>
       <c r="Z13" s="6">
-        <v>0</v>
+        <v>179354.38</v>
       </c>
       <c r="AA13" s="6">
-        <v>0</v>
+        <v>15069.5</v>
       </c>
       <c r="AB13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="6">
+        <v>99286.47</v>
+      </c>
+      <c r="AC13" s="7">
         <v>0</v>
       </c>
       <c r="AD13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="5">
-        <v>22719.14</v>
+        <v>74481.679999999993</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>551857.77</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="5" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="5">
-        <v>1077700.71</v>
-      </c>
-      <c r="H14" s="5">
-        <v>127326.99</v>
-      </c>
-      <c r="I14" s="5">
-        <v>127326.99</v>
-      </c>
-      <c r="J14" s="5">
-        <v>110138.6</v>
-      </c>
-      <c r="K14" s="5">
-        <v>110138.6</v>
-      </c>
-      <c r="L14" s="5">
-        <v>117468.67</v>
-      </c>
-      <c r="M14" s="5">
-        <v>117468.67</v>
-      </c>
-      <c r="N14" s="5">
-        <v>118679.02</v>
-      </c>
-      <c r="O14" s="5">
-        <v>118679.02</v>
-      </c>
-      <c r="P14" s="5">
-        <v>117459.25</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>117459.25</v>
-      </c>
-      <c r="R14" s="5">
-        <v>116723.53</v>
-      </c>
-      <c r="S14" s="5">
-        <v>116723.53</v>
-      </c>
-      <c r="T14" s="5">
-        <v>102878.35</v>
-      </c>
-      <c r="U14" s="5">
-        <v>102878.35</v>
-      </c>
-      <c r="V14" s="5">
-        <v>64135.98</v>
-      </c>
-      <c r="W14" s="5">
-        <v>64135.98</v>
-      </c>
-      <c r="X14" s="5">
-        <v>202890.31</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>202890.31</v>
+      <c r="G14" s="6">
+        <v>25464.57</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2323.5300000000002</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2323.5300000000002</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2284.37</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2284.37</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1632.7</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1632.7</v>
+      </c>
+      <c r="N14" s="6">
+        <v>4690.58</v>
+      </c>
+      <c r="O14" s="6">
+        <v>4690.58</v>
+      </c>
+      <c r="P14" s="6">
+        <v>2736.81</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>2736.81</v>
+      </c>
+      <c r="R14" s="6">
+        <v>2533.5300000000002</v>
+      </c>
+      <c r="S14" s="6">
+        <v>2533.5300000000002</v>
+      </c>
+      <c r="T14" s="6">
+        <v>3243.72</v>
+      </c>
+      <c r="U14" s="6">
+        <v>3243.72</v>
+      </c>
+      <c r="V14" s="6">
+        <v>3221.56</v>
+      </c>
+      <c r="W14" s="6">
+        <v>3221.56</v>
+      </c>
+      <c r="X14" s="6">
+        <v>2797.78</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>2797.78</v>
       </c>
       <c r="Z14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="6">
+        <v>1590.56</v>
+      </c>
+      <c r="AA14" s="7">
         <v>0</v>
       </c>
       <c r="AB14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="6">
+        <v>1643.29</v>
+      </c>
+      <c r="AC14" s="7">
         <v>0</v>
       </c>
       <c r="AD14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="5">
-        <v>956250.73</v>
+        <v>2764.34</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>23193.57</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="5" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="5">
-        <v>167477.78</v>
-      </c>
-      <c r="H15" s="5">
-        <v>18486.099999999999</v>
-      </c>
-      <c r="I15" s="5">
-        <v>18486.099999999999</v>
-      </c>
-      <c r="J15" s="5">
-        <v>11245.6</v>
-      </c>
-      <c r="K15" s="5">
-        <v>11245.6</v>
-      </c>
-      <c r="L15" s="5">
-        <v>24544</v>
-      </c>
-      <c r="M15" s="5">
-        <v>24544</v>
-      </c>
-      <c r="N15" s="5">
-        <v>16315</v>
-      </c>
-      <c r="O15" s="5">
-        <v>16315</v>
-      </c>
-      <c r="P15" s="5">
-        <v>45354</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>45354</v>
-      </c>
-      <c r="R15" s="5">
-        <v>40161</v>
-      </c>
-      <c r="S15" s="5">
-        <v>40161</v>
-      </c>
-      <c r="T15" s="5">
-        <v>5046.28</v>
-      </c>
-      <c r="U15" s="5">
-        <v>5046.28</v>
-      </c>
-      <c r="V15" s="5">
-        <v>2129</v>
-      </c>
-      <c r="W15" s="5">
-        <v>2129</v>
-      </c>
-      <c r="X15" s="5">
-        <v>4196.8</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>4196.8</v>
+      <c r="G15" s="6">
+        <v>1089069.52</v>
+      </c>
+      <c r="H15" s="6">
+        <v>127326.99</v>
+      </c>
+      <c r="I15" s="6">
+        <v>127326.99</v>
+      </c>
+      <c r="J15" s="6">
+        <v>110138.6</v>
+      </c>
+      <c r="K15" s="6">
+        <v>110138.6</v>
+      </c>
+      <c r="L15" s="6">
+        <v>117468.67</v>
+      </c>
+      <c r="M15" s="6">
+        <v>117468.67</v>
+      </c>
+      <c r="N15" s="6">
+        <v>118679.02</v>
+      </c>
+      <c r="O15" s="6">
+        <v>118679.02</v>
+      </c>
+      <c r="P15" s="6">
+        <v>117459.25</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>117459.25</v>
+      </c>
+      <c r="R15" s="6">
+        <v>116723.53</v>
+      </c>
+      <c r="S15" s="6">
+        <v>116723.53</v>
+      </c>
+      <c r="T15" s="6">
+        <v>102878.35</v>
+      </c>
+      <c r="U15" s="6">
+        <v>102878.35</v>
+      </c>
+      <c r="V15" s="6">
+        <v>64135.98</v>
+      </c>
+      <c r="W15" s="6">
+        <v>64135.98</v>
+      </c>
+      <c r="X15" s="6">
+        <v>202890.31</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>202892.16</v>
       </c>
       <c r="Z15" s="6">
-        <v>0</v>
+        <v>395413.55</v>
       </c>
       <c r="AA15" s="6">
-        <v>0</v>
+        <v>11366.96</v>
       </c>
       <c r="AB15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="6">
+        <v>149613.18</v>
+      </c>
+      <c r="AC15" s="7">
         <v>0</v>
       </c>
       <c r="AD15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="5">
-        <v>167477.78</v>
+        <v>109067.09</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>1311642.1399999999</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="5" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
+        <v>167477.78</v>
+      </c>
+      <c r="H16" s="6">
+        <v>18486.099999999999</v>
+      </c>
+      <c r="I16" s="6">
+        <v>18486.099999999999</v>
+      </c>
+      <c r="J16" s="6">
+        <v>11245.6</v>
+      </c>
+      <c r="K16" s="6">
+        <v>11245.6</v>
+      </c>
+      <c r="L16" s="6">
+        <v>24544</v>
+      </c>
+      <c r="M16" s="6">
+        <v>24544</v>
+      </c>
+      <c r="N16" s="6">
+        <v>16315</v>
+      </c>
+      <c r="O16" s="6">
+        <v>16315</v>
+      </c>
+      <c r="P16" s="6">
+        <v>45354</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>45354</v>
+      </c>
+      <c r="R16" s="6">
+        <v>40161</v>
+      </c>
+      <c r="S16" s="6">
+        <v>40161</v>
+      </c>
+      <c r="T16" s="6">
+        <v>5046.28</v>
+      </c>
+      <c r="U16" s="6">
+        <v>5046.28</v>
+      </c>
+      <c r="V16" s="6">
+        <v>2129</v>
+      </c>
+      <c r="W16" s="6">
+        <v>2129</v>
+      </c>
+      <c r="X16" s="6">
+        <v>4196.8</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>4196.8</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>243764</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>84527.4</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>7411</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>444172.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="6">
         <v>56266.75</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H17" s="6">
         <v>3173.02</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I17" s="6">
         <v>3173.02</v>
       </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
         <v>21541.13</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M17" s="6">
         <v>21541.13</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N17" s="6">
         <v>4590.3999999999996</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O17" s="6">
         <v>4590.3999999999996</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P17" s="6">
         <v>4573.8</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q17" s="6">
         <v>4573.8</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R17" s="8">
         <v>607.71</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S17" s="8">
         <v>607.71</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T17" s="6">
         <v>21780.69</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U17" s="6">
         <v>21780.69</v>
       </c>
-      <c r="V16" s="6">
-        <v>0</v>
-      </c>
-      <c r="W16" s="6">
-        <v>0</v>
-      </c>
-      <c r="X16" s="7">
-        <v>50.21</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>53641.57</v>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0</v>
+      </c>
+      <c r="X17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>42137.11</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>399656.39</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>413053.41</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>726347.76</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="5">
-        <v>2804.8</v>
-      </c>
-      <c r="H17" s="7">
+    <row r="18" spans="1:32" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2817.6</v>
+      </c>
+      <c r="H18" s="8">
         <v>89.95</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I18" s="8">
         <v>89.95</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J18" s="8">
         <v>78.12</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K18" s="8">
         <v>78.12</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L18" s="8">
         <v>342.71</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M18" s="8">
         <v>342.71</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N18" s="8">
         <v>281.45999999999998</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O18" s="8">
         <v>281.45999999999998</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P18" s="8">
         <v>626.92999999999995</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q18" s="8">
         <v>626.92999999999995</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R18" s="8">
         <v>239.09</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S18" s="8">
         <v>239.09</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T18" s="8">
         <v>348.73</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U18" s="8">
         <v>348.73</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V18" s="8">
         <v>319.87</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W18" s="8">
         <v>319.87</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X18" s="8">
         <v>477.94</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y18" s="8">
         <v>477.94</v>
       </c>
-      <c r="Z17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="5">
-        <v>2804.8</v>
+      <c r="Z18" s="8">
+        <v>12.8</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>12.8</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>2817.6</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="7">
+    <row r="19" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="8">
         <v>9.01</v>
       </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7">
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
         <v>9.01</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S19" s="8">
         <v>9.01</v>
       </c>
-      <c r="T18" s="6">
-        <v>0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0</v>
-      </c>
-      <c r="V18" s="6">
-        <v>0</v>
-      </c>
-      <c r="W18" s="6">
-        <v>0</v>
-      </c>
-      <c r="X18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="6">
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="8">
-        <v>1586434.35</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1586384.14</v>
-      </c>
-      <c r="H19" s="8">
+    <row r="20" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="9">
+        <v>6350733.1399999997</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1612835.26</v>
+      </c>
+      <c r="H20" s="9">
         <v>179256.33</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I20" s="9">
         <v>179256.33</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J20" s="9">
         <v>150158.03</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K20" s="9">
         <v>150158.03</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L20" s="9">
         <v>206855.23</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M20" s="9">
         <v>206855.23</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N20" s="9">
         <v>171154.58</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O20" s="9">
         <v>171158.12</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P20" s="9">
         <v>195077.05</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q20" s="9">
         <v>195077.05</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R20" s="9">
         <v>184730.85</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S20" s="9">
         <v>184730.85</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T20" s="9">
         <v>168427.83</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U20" s="9">
         <v>168424.29</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V20" s="9">
         <v>93752.89</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W20" s="9">
         <v>93752.89</v>
       </c>
-      <c r="X19" s="8">
-        <v>237021.57</v>
-      </c>
-      <c r="Y19" s="8">
+      <c r="X20" s="9">
         <v>236971.36</v>
       </c>
-      <c r="Z19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="8">
-        <v>1458230.81</v>
+      <c r="Y20" s="9">
+        <v>236973.21</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>862272.4</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>26449.26</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>800373.76000000001</v>
+      </c>
+      <c r="AC20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="9">
+        <v>3101702.84</v>
+      </c>
+      <c r="AE20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="9">
+        <v>4939446.5199999996</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
+  <mergeCells count="24">
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 30 сентября 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 03.10.2022 21:03:24 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 05.10.2022 17:58:32 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98882B55-FE32-694D-908F-D3186046457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E510CE-0D47-FA49-A3BE-8C0A8C47645D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13100" yWindow="4000" windowWidth="34440" windowHeight="17820" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2380" yWindow="-29520" windowWidth="32520" windowHeight="17520" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -91,9 +102,6 @@
     <t>Общий объем оплаченных денежных средств по договору (контракту) (тыс.руб. без НДС)</t>
   </si>
   <si>
-    <t>Метрологический отдел</t>
-  </si>
-  <si>
     <t>Научное отделение № 10 (НО № 10)</t>
   </si>
   <si>
@@ -112,12 +120,6 @@
     <t>Научное отделение № 9 (НО № 9)</t>
   </si>
   <si>
-    <t>Научное отделение сопровождения НИОКР и информационных систем (НО СНИОКР и ИС)</t>
-  </si>
-  <si>
-    <t>Отдел капитального строительства (ОКС)</t>
-  </si>
-  <si>
     <t>Итого</t>
   </si>
   <si>
@@ -139,10 +141,7 @@
     <t>НО № 9</t>
   </si>
   <si>
-    <t>НО СНИОКР и ИС</t>
-  </si>
-  <si>
-    <t>ОКС</t>
+    <t>Прочие</t>
   </si>
 </sst>
 </file>
@@ -159,14 +158,12 @@
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -183,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -265,11 +262,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -283,43 +317,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -664,10 +701,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AF20"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -689,108 +726,112 @@
     <col min="32" max="32" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:32" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
-    <row r="4" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" collapsed="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
     <row r="5" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="15" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15" t="s">
+      <c r="K9" s="14"/>
+      <c r="L9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15" t="s">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15" t="s">
+      <c r="O9" s="14"/>
+      <c r="P9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15" t="s">
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15" t="s">
+      <c r="S9" s="14"/>
+      <c r="T9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15" t="s">
+      <c r="U9" s="14"/>
+      <c r="V9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15" t="s">
+      <c r="W9" s="14"/>
+      <c r="X9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15" t="s">
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15" t="s">
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15" t="s">
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AE9" s="15"/>
+      <c r="AE9" s="14"/>
       <c r="AF9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
@@ -874,912 +915,730 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="A11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="6">
+        <v>36</v>
+      </c>
+      <c r="G11" s="5">
         <v>1682.07</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0</v>
-      </c>
-      <c r="T11" s="7">
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
-        <v>0</v>
-      </c>
-      <c r="V11" s="7">
-        <v>0</v>
-      </c>
-      <c r="W11" s="7">
-        <v>0</v>
-      </c>
-      <c r="X11" s="6">
-        <v>1682.07</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>1682.07</v>
-      </c>
-      <c r="Z11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="7">
+      <c r="H11" s="6">
+        <v>89.95</v>
+      </c>
+      <c r="I11" s="6">
+        <v>89.95</v>
+      </c>
+      <c r="J11" s="6">
+        <v>78.12</v>
+      </c>
+      <c r="K11" s="6">
+        <v>78.12</v>
+      </c>
+      <c r="L11" s="6">
+        <v>342.71</v>
+      </c>
+      <c r="M11" s="6">
+        <v>342.71</v>
+      </c>
+      <c r="N11" s="6">
+        <v>281.45999999999998</v>
+      </c>
+      <c r="O11" s="6">
+        <v>281.45999999999998</v>
+      </c>
+      <c r="P11" s="6">
+        <v>626.92999999999995</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>626.92999999999995</v>
+      </c>
+      <c r="R11" s="6">
+        <v>248.1</v>
+      </c>
+      <c r="S11" s="6">
+        <v>248.1</v>
+      </c>
+      <c r="T11" s="6">
+        <v>348.73</v>
+      </c>
+      <c r="U11" s="6">
+        <v>348.73</v>
+      </c>
+      <c r="V11" s="6">
+        <v>319.87</v>
+      </c>
+      <c r="W11" s="6">
+        <v>319.87</v>
+      </c>
+      <c r="X11" s="5">
+        <v>2160.0099999999998</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>2160.0099999999998</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="A12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="5">
         <v>1190.3699999999999</v>
       </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0</v>
-      </c>
-      <c r="S12" s="7">
-        <v>0</v>
-      </c>
-      <c r="T12" s="7">
-        <v>0</v>
-      </c>
-      <c r="U12" s="7">
-        <v>0</v>
-      </c>
-      <c r="V12" s="7">
-        <v>0</v>
-      </c>
-      <c r="W12" s="7">
-        <v>0</v>
-      </c>
-      <c r="X12" s="6">
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
         <v>1190.3699999999999</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="5">
         <v>1190.3699999999999</v>
       </c>
-      <c r="Z12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="6">
+      <c r="Z12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5">
         <v>65647.03</v>
       </c>
-      <c r="AC12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="6">
+      <c r="AC12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="5">
         <v>2494925.3199999998</v>
       </c>
-      <c r="AE12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="6">
+      <c r="AE12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="5">
         <v>1879415.19</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="A13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="5">
         <v>268857.58</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>27856.74</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>27856.74</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>26411.34</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>26411.34</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>41326.01</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>41326.01</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>26598.12</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>26601.66</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>24326.26</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>24326.26</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="5">
         <v>24456.97</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="5">
         <v>24456.97</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="5">
         <v>35130.06</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="5">
         <v>35126.519999999997</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="5">
         <v>23946.49</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="5">
         <v>23946.49</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="5">
         <v>23736.1</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="5">
         <v>23736.1</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="Z13" s="5">
         <v>179354.38</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AA13" s="5">
         <v>15069.5</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AB13" s="5">
         <v>99286.47</v>
       </c>
-      <c r="AC13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="6">
+      <c r="AC13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="5">
         <v>74481.679999999993</v>
       </c>
-      <c r="AE13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="6">
+      <c r="AE13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="5">
         <v>551857.77</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="A14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="5">
         <v>25464.57</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>2323.5300000000002</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>2323.5300000000002</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>2284.37</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>2284.37</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>1632.7</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>1632.7</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <v>4690.58</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>4690.58</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>2736.81</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <v>2736.81</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="5">
         <v>2533.5300000000002</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="5">
         <v>2533.5300000000002</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="5">
         <v>3243.72</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="5">
         <v>3243.72</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="5">
         <v>3221.56</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="5">
         <v>3221.56</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="5">
         <v>2797.78</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="5">
         <v>2797.78</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="Z14" s="5">
         <v>1590.56</v>
       </c>
-      <c r="AA14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="6">
+      <c r="AA14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5">
         <v>1643.29</v>
       </c>
-      <c r="AC14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="6">
+      <c r="AC14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5">
         <v>2764.34</v>
       </c>
-      <c r="AE14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="6">
+      <c r="AE14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="5">
         <v>23193.57</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="A15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="5">
         <v>1089069.52</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>127326.99</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>127326.99</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>110138.6</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>110138.6</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>117468.67</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>117468.67</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <v>118679.02</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <v>118679.02</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <v>117459.25</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <v>117459.25</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="5">
         <v>116723.53</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="5">
         <v>116723.53</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="5">
         <v>102878.35</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="5">
         <v>102878.35</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="5">
         <v>64135.98</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="5">
         <v>64135.98</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="5">
         <v>202890.31</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="Y15" s="5">
         <v>202892.16</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="Z15" s="5">
         <v>395413.55</v>
       </c>
-      <c r="AA15" s="6">
+      <c r="AA15" s="5">
         <v>11366.96</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AB15" s="5">
         <v>149613.18</v>
       </c>
-      <c r="AC15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="6">
+      <c r="AC15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="5">
         <v>109067.09</v>
       </c>
-      <c r="AE15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="6">
+      <c r="AE15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="5">
         <v>1311642.1399999999</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="A16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="5">
         <v>167477.78</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>18486.099999999999</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>18486.099999999999</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>11245.6</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>11245.6</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>24544</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <v>24544</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <v>16315</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>16315</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <v>45354</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <v>45354</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="5">
         <v>40161</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="5">
         <v>40161</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="5">
         <v>5046.28</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="5">
         <v>5046.28</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="5">
         <v>2129</v>
       </c>
-      <c r="W16" s="6">
+      <c r="W16" s="5">
         <v>2129</v>
       </c>
-      <c r="X16" s="6">
+      <c r="X16" s="5">
         <v>4196.8</v>
       </c>
-      <c r="Y16" s="6">
+      <c r="Y16" s="5">
         <v>4196.8</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="Z16" s="5">
         <v>243764</v>
       </c>
-      <c r="AA16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="6">
+      <c r="AA16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="5">
         <v>84527.4</v>
       </c>
-      <c r="AC16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="6">
+      <c r="AC16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="5">
         <v>7411</v>
       </c>
-      <c r="AE16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="6">
+      <c r="AE16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="5">
         <v>444172.48</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="5">
+        <v>56266.75</v>
+      </c>
+      <c r="H17" s="5">
+        <v>3173.02</v>
+      </c>
+      <c r="I17" s="5">
+        <v>3173.02</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>21541.13</v>
+      </c>
+      <c r="M17" s="5">
+        <v>21541.13</v>
+      </c>
+      <c r="N17" s="5">
+        <v>4590.3999999999996</v>
+      </c>
+      <c r="O17" s="5">
+        <v>4590.3999999999996</v>
+      </c>
+      <c r="P17" s="5">
+        <v>4573.8</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>4573.8</v>
+      </c>
+      <c r="R17" s="7">
+        <v>607.71</v>
+      </c>
+      <c r="S17" s="7">
+        <v>607.71</v>
+      </c>
+      <c r="T17" s="5">
+        <v>21780.69</v>
+      </c>
+      <c r="U17" s="5">
+        <v>21780.69</v>
+      </c>
+      <c r="V17" s="6">
+        <v>0</v>
+      </c>
+      <c r="W17" s="6">
+        <v>0</v>
+      </c>
+      <c r="X17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>42137.11</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>399656.39</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>413053.41</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>726347.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="6">
-        <v>56266.75</v>
-      </c>
-      <c r="H17" s="6">
-        <v>3173.02</v>
-      </c>
-      <c r="I17" s="6">
-        <v>3173.02</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>21541.13</v>
-      </c>
-      <c r="M17" s="6">
-        <v>21541.13</v>
-      </c>
-      <c r="N17" s="6">
-        <v>4590.3999999999996</v>
-      </c>
-      <c r="O17" s="6">
-        <v>4590.3999999999996</v>
-      </c>
-      <c r="P17" s="6">
-        <v>4573.8</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>4573.8</v>
-      </c>
-      <c r="R17" s="8">
-        <v>607.71</v>
-      </c>
-      <c r="S17" s="8">
-        <v>607.71</v>
-      </c>
-      <c r="T17" s="6">
-        <v>21780.69</v>
-      </c>
-      <c r="U17" s="6">
-        <v>21780.69</v>
-      </c>
-      <c r="V17" s="7">
-        <v>0</v>
-      </c>
-      <c r="W17" s="7">
-        <v>0</v>
-      </c>
-      <c r="X17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="6">
-        <v>42137.11</v>
-      </c>
-      <c r="AA17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="6">
-        <v>399656.39</v>
-      </c>
-      <c r="AC17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="6">
-        <v>413053.41</v>
-      </c>
-      <c r="AE17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="6">
-        <v>726347.76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="6">
-        <v>2817.6</v>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="8">
+        <v>6350733.1399999997</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1612835.26</v>
       </c>
       <c r="H18" s="8">
-        <v>89.95</v>
+        <v>179256.33</v>
       </c>
       <c r="I18" s="8">
-        <v>89.95</v>
+        <v>179256.33</v>
       </c>
       <c r="J18" s="8">
-        <v>78.12</v>
+        <v>150158.03</v>
       </c>
       <c r="K18" s="8">
-        <v>78.12</v>
+        <v>150158.03</v>
       </c>
       <c r="L18" s="8">
-        <v>342.71</v>
+        <v>206855.23</v>
       </c>
       <c r="M18" s="8">
-        <v>342.71</v>
+        <v>206855.23</v>
       </c>
       <c r="N18" s="8">
-        <v>281.45999999999998</v>
+        <v>171154.58</v>
       </c>
       <c r="O18" s="8">
-        <v>281.45999999999998</v>
+        <v>171158.12</v>
       </c>
       <c r="P18" s="8">
-        <v>626.92999999999995</v>
+        <v>195077.05</v>
       </c>
       <c r="Q18" s="8">
-        <v>626.92999999999995</v>
+        <v>195077.05</v>
       </c>
       <c r="R18" s="8">
-        <v>239.09</v>
+        <v>184730.85</v>
       </c>
       <c r="S18" s="8">
-        <v>239.09</v>
+        <v>184730.85</v>
       </c>
       <c r="T18" s="8">
-        <v>348.73</v>
+        <v>168427.83</v>
       </c>
       <c r="U18" s="8">
-        <v>348.73</v>
+        <v>168424.29</v>
       </c>
       <c r="V18" s="8">
-        <v>319.87</v>
+        <v>93752.89</v>
       </c>
       <c r="W18" s="8">
-        <v>319.87</v>
+        <v>93752.89</v>
       </c>
       <c r="X18" s="8">
-        <v>477.94</v>
+        <v>236971.36</v>
       </c>
       <c r="Y18" s="8">
-        <v>477.94</v>
+        <v>236973.21</v>
       </c>
       <c r="Z18" s="8">
-        <v>12.8</v>
+        <v>862272.4</v>
       </c>
       <c r="AA18" s="8">
-        <v>12.8</v>
-      </c>
-      <c r="AB18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="6">
-        <v>2817.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="8">
-        <v>9.01</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0</v>
-      </c>
-      <c r="R19" s="8">
-        <v>9.01</v>
-      </c>
-      <c r="S19" s="8">
-        <v>9.01</v>
-      </c>
-      <c r="T19" s="7">
-        <v>0</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0</v>
-      </c>
-      <c r="V19" s="7">
-        <v>0</v>
-      </c>
-      <c r="W19" s="7">
-        <v>0</v>
-      </c>
-      <c r="X19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="9">
-        <v>6350733.1399999997</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1612835.26</v>
-      </c>
-      <c r="H20" s="9">
-        <v>179256.33</v>
-      </c>
-      <c r="I20" s="9">
-        <v>179256.33</v>
-      </c>
-      <c r="J20" s="9">
-        <v>150158.03</v>
-      </c>
-      <c r="K20" s="9">
-        <v>150158.03</v>
-      </c>
-      <c r="L20" s="9">
-        <v>206855.23</v>
-      </c>
-      <c r="M20" s="9">
-        <v>206855.23</v>
-      </c>
-      <c r="N20" s="9">
-        <v>171154.58</v>
-      </c>
-      <c r="O20" s="9">
-        <v>171158.12</v>
-      </c>
-      <c r="P20" s="9">
-        <v>195077.05</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>195077.05</v>
-      </c>
-      <c r="R20" s="9">
-        <v>184730.85</v>
-      </c>
-      <c r="S20" s="9">
-        <v>184730.85</v>
-      </c>
-      <c r="T20" s="9">
-        <v>168427.83</v>
-      </c>
-      <c r="U20" s="9">
-        <v>168424.29</v>
-      </c>
-      <c r="V20" s="9">
-        <v>93752.89</v>
-      </c>
-      <c r="W20" s="9">
-        <v>93752.89</v>
-      </c>
-      <c r="X20" s="9">
-        <v>236971.36</v>
-      </c>
-      <c r="Y20" s="9">
-        <v>236973.21</v>
-      </c>
-      <c r="Z20" s="9">
-        <v>862272.4</v>
-      </c>
-      <c r="AA20" s="9">
         <v>26449.26</v>
       </c>
-      <c r="AB20" s="9">
+      <c r="AB18" s="8">
         <v>800373.76000000001</v>
       </c>
-      <c r="AC20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="9">
+      <c r="AC18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="8">
         <v>3101702.84</v>
       </c>
-      <c r="AE20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="9">
+      <c r="AE18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="8">
         <v>4939446.5199999996</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="22">
+    <mergeCell ref="A18:E18"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>

--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E510CE-0D47-FA49-A3BE-8C0A8C47645D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00484120-B1CF-494D-8032-48E40D30F46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2380" yWindow="-29520" windowWidth="32520" windowHeight="17520" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26700" windowHeight="15660" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -42,10 +42,16 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 06.10.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 05.10.2022</t>
+    <t>Граница для факта: 10.10.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 10.10.2022</t>
+  </si>
+  <si>
+    <t>Отбор:</t>
+  </si>
+  <si>
+    <t>Код номенклатуры Не в списке "04"</t>
   </si>
   <si>
     <t>Темодержатель</t>
@@ -123,6 +129,9 @@
     <t>Итого</t>
   </si>
   <si>
+    <t>Прочие</t>
+  </si>
+  <si>
     <t>НО № 10</t>
   </si>
   <si>
@@ -139,9 +148,6 @@
   </si>
   <si>
     <t>НО № 9</t>
-  </si>
-  <si>
-    <t>Прочие</t>
   </si>
 </sst>
 </file>
@@ -180,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -262,48 +268,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA0A0A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA0A0A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -332,6 +301,18 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -343,21 +324,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,10 +667,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -734,7 +700,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" collapsed="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>1</v>
@@ -757,173 +723,179 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:32" s="1" customFormat="1" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="3"/>
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="s">
+      <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14" t="s">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14" t="s">
+      <c r="K9" s="13"/>
+      <c r="L9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14" t="s">
+      <c r="M9" s="13"/>
+      <c r="N9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14" t="s">
+      <c r="O9" s="13"/>
+      <c r="P9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14" t="s">
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14" t="s">
+      <c r="S9" s="13"/>
+      <c r="T9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14" t="s">
+      <c r="U9" s="13"/>
+      <c r="V9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14" t="s">
+      <c r="W9" s="13"/>
+      <c r="X9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14" t="s">
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AE9" s="14"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE9" s="13"/>
       <c r="AF9" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G11" s="5">
         <v>1682.07</v>
@@ -983,10 +955,10 @@
         <v>2160.0099999999998</v>
       </c>
       <c r="Z11" s="6">
-        <v>12.8</v>
+        <v>115.24</v>
       </c>
       <c r="AA11" s="6">
-        <v>12.8</v>
+        <v>60.53</v>
       </c>
       <c r="AB11" s="6">
         <v>0</v>
@@ -1001,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="6">
-        <v>0</v>
+        <v>2920.04</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="A12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G12" s="5">
         <v>1190.3699999999999</v>
@@ -1095,18 +1067,18 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="A13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G13" s="5">
-        <v>268857.58</v>
+        <v>271967.5</v>
       </c>
       <c r="H13" s="5">
         <v>27856.74</v>
@@ -1163,10 +1135,10 @@
         <v>23736.1</v>
       </c>
       <c r="Z13" s="5">
-        <v>179354.38</v>
+        <v>181704.48</v>
       </c>
       <c r="AA13" s="5">
-        <v>15069.5</v>
+        <v>18179.41</v>
       </c>
       <c r="AB13" s="5">
         <v>99286.47</v>
@@ -1175,28 +1147,28 @@
         <v>0</v>
       </c>
       <c r="AD13" s="5">
-        <v>74481.679999999993</v>
+        <v>70271.02</v>
       </c>
       <c r="AE13" s="6">
         <v>0</v>
       </c>
       <c r="AF13" s="5">
-        <v>551857.77</v>
+        <v>554047.43999999994</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="A14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G14" s="5">
-        <v>25464.57</v>
+        <v>25569.97</v>
       </c>
       <c r="H14" s="5">
         <v>2323.5300000000002</v>
@@ -1247,10 +1219,10 @@
         <v>3221.56</v>
       </c>
       <c r="X14" s="5">
-        <v>2797.78</v>
+        <v>2903.18</v>
       </c>
       <c r="Y14" s="5">
-        <v>2797.78</v>
+        <v>2903.18</v>
       </c>
       <c r="Z14" s="5">
         <v>1590.56</v>
@@ -1259,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="AB14" s="5">
-        <v>1643.29</v>
+        <v>1616.93</v>
       </c>
       <c r="AC14" s="6">
         <v>0</v>
       </c>
       <c r="AD14" s="5">
-        <v>2764.34</v>
+        <v>2685.3</v>
       </c>
       <c r="AE14" s="6">
         <v>0</v>
@@ -1275,18 +1247,18 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="A15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G15" s="5">
-        <v>1089069.52</v>
+        <v>1095094.6499999999</v>
       </c>
       <c r="H15" s="5">
         <v>127326.99</v>
@@ -1346,7 +1318,7 @@
         <v>395413.55</v>
       </c>
       <c r="AA15" s="5">
-        <v>11366.96</v>
+        <v>17392.09</v>
       </c>
       <c r="AB15" s="5">
         <v>149613.18</v>
@@ -1361,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="5">
-        <v>1311642.1399999999</v>
+        <v>1313519.3700000001</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="A16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G16" s="5">
         <v>167477.78</v>
@@ -1455,15 +1427,15 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="A17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G17" s="5">
         <v>56266.75</v>
@@ -1523,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="5">
-        <v>42137.11</v>
+        <v>42103.24</v>
       </c>
       <c r="AA17" s="6">
         <v>0</v>
@@ -1544,19 +1516,19 @@
         <v>726347.76</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
+    <row r="18" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="8">
-        <v>6350733.1399999997</v>
+        <v>6348941.1500000004</v>
       </c>
       <c r="G18" s="8">
-        <v>1612835.26</v>
+        <v>1622123.44</v>
       </c>
       <c r="H18" s="8">
         <v>179256.33</v>
@@ -1607,63 +1579,90 @@
         <v>93752.89</v>
       </c>
       <c r="X18" s="8">
-        <v>236971.36</v>
+        <v>237076.77</v>
       </c>
       <c r="Y18" s="8">
-        <v>236973.21</v>
+        <v>237078.62</v>
       </c>
       <c r="Z18" s="8">
-        <v>862272.4</v>
+        <v>864691.06</v>
       </c>
       <c r="AA18" s="8">
-        <v>26449.26</v>
+        <v>35632.03</v>
       </c>
       <c r="AB18" s="8">
-        <v>800373.76000000001</v>
+        <v>800347.39</v>
       </c>
       <c r="AC18" s="9">
         <v>0</v>
       </c>
       <c r="AD18" s="8">
-        <v>3101702.84</v>
+        <v>3097413.14</v>
       </c>
       <c r="AE18" s="9">
         <v>0</v>
       </c>
       <c r="AF18" s="8">
-        <v>4939446.5199999996</v>
-      </c>
+        <v>4943615.8499999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 05.10.2022 17:58:32 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 10.10.2022 18:22:07 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00484120-B1CF-494D-8032-48E40D30F46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DEE6A3-C70F-E247-A7E1-7F99B369D731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26700" windowHeight="15660" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4940" yWindow="-34200" windowWidth="40340" windowHeight="14780" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,10 +42,7 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 10.10.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 10.10.2022</t>
+    <t>Граница для факта: 17.10.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t>Текущая дата: 14.10.2022</t>
   </si>
   <si>
     <t>Прочие</t>
@@ -154,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -164,12 +164,22 @@
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -272,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -301,29 +311,32 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,7 +683,7 @@
   <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -700,8 +713,8 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" collapsed="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:32" s="1" customFormat="1" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -711,91 +724,91 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" s="1" customFormat="1" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="3" t="s">
-        <v>4</v>
+    <row r="6" spans="1:32" s="1" customFormat="1" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M9" s="13"/>
       <c r="N9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O9" s="13"/>
       <c r="P9" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="13"/>
       <c r="R9" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S9" s="13"/>
       <c r="T9" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U9" s="13"/>
       <c r="V9" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA9" s="13"/>
       <c r="AB9" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC9" s="13"/>
       <c r="AD9" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE9" s="13"/>
       <c r="AF9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
@@ -805,85 +818,85 @@
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF10" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -958,7 +971,7 @@
         <v>115.24</v>
       </c>
       <c r="AA11" s="6">
-        <v>60.53</v>
+        <v>115.24</v>
       </c>
       <c r="AB11" s="6">
         <v>0</v>
@@ -978,7 +991,7 @@
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1050,25 +1063,25 @@
       <c r="AA12" s="6">
         <v>0</v>
       </c>
-      <c r="AB12" s="5">
-        <v>65647.03</v>
+      <c r="AB12" s="6">
+        <v>0</v>
       </c>
       <c r="AC12" s="6">
         <v>0</v>
       </c>
       <c r="AD12" s="5">
-        <v>2494925.3199999998</v>
+        <v>2466064.2200000002</v>
       </c>
       <c r="AE12" s="6">
         <v>0</v>
       </c>
       <c r="AF12" s="5">
-        <v>1879415.19</v>
+        <v>1832161.12</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1078,7 +1091,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="5">
-        <v>271967.5</v>
+        <v>278763.90999999997</v>
       </c>
       <c r="H13" s="5">
         <v>27856.74</v>
@@ -1135,30 +1148,30 @@
         <v>23736.1</v>
       </c>
       <c r="Z13" s="5">
-        <v>181704.48</v>
+        <v>184264.22</v>
       </c>
       <c r="AA13" s="5">
-        <v>18179.41</v>
+        <v>24975.82</v>
       </c>
       <c r="AB13" s="5">
-        <v>99286.47</v>
+        <v>99150.33</v>
       </c>
       <c r="AC13" s="6">
         <v>0</v>
       </c>
       <c r="AD13" s="5">
-        <v>70271.02</v>
+        <v>69420.570000000007</v>
       </c>
       <c r="AE13" s="6">
         <v>0</v>
       </c>
       <c r="AF13" s="5">
-        <v>554047.43999999994</v>
+        <v>555642.6</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1248,7 +1261,7 @@
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1258,7 +1271,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="5">
-        <v>1095094.6499999999</v>
+        <v>1100644.9099999999</v>
       </c>
       <c r="H15" s="5">
         <v>127326.99</v>
@@ -1315,13 +1328,13 @@
         <v>202892.16</v>
       </c>
       <c r="Z15" s="5">
-        <v>395413.55</v>
+        <v>397265.3</v>
       </c>
       <c r="AA15" s="5">
-        <v>17392.09</v>
+        <v>22942.35</v>
       </c>
       <c r="AB15" s="5">
-        <v>149613.18</v>
+        <v>151045.98000000001</v>
       </c>
       <c r="AC15" s="6">
         <v>0</v>
@@ -1333,12 +1346,12 @@
         <v>0</v>
       </c>
       <c r="AF15" s="5">
-        <v>1313519.3700000001</v>
+        <v>1328845.6100000001</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1428,7 +1441,7 @@
     </row>
     <row r="17" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1518,17 +1531,17 @@
     </row>
     <row r="18" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="8">
-        <v>6348941.1500000004</v>
+        <v>6259290.7300000004</v>
       </c>
       <c r="G18" s="8">
-        <v>1622123.44</v>
+        <v>1634524.81</v>
       </c>
       <c r="H18" s="8">
         <v>179256.33</v>
@@ -1585,53 +1598,53 @@
         <v>237078.62</v>
       </c>
       <c r="Z18" s="8">
-        <v>864691.06</v>
+        <v>869102.55</v>
       </c>
       <c r="AA18" s="8">
-        <v>35632.03</v>
+        <v>48033.41</v>
       </c>
       <c r="AB18" s="8">
-        <v>800347.39</v>
+        <v>735997.03</v>
       </c>
       <c r="AC18" s="9">
         <v>0</v>
       </c>
       <c r="AD18" s="8">
-        <v>3097413.14</v>
+        <v>3067701.6</v>
       </c>
       <c r="AE18" s="9">
         <v>0</v>
       </c>
       <c r="AF18" s="8">
-        <v>4943615.8499999996</v>
+        <v>4913283.18</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1649,20 +1662,20 @@
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 10.10.2022 18:22:07 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 16.10.2022 18:58:46 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DEE6A3-C70F-E247-A7E1-7F99B369D731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101658A3-AFF6-BF4B-B600-A380C1DEAC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4940" yWindow="-34200" windowWidth="40340" windowHeight="14780" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11800" yWindow="-26420" windowWidth="41020" windowHeight="14120" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="autoNoTable"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +42,10 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 17.10.2022</t>
+    <t>Граница для факта: 24.10.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 23.10.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -124,9 +127,6 @@
   </si>
   <si>
     <t>Итого</t>
-  </si>
-  <si>
-    <t>Текущая дата: 14.10.2022</t>
   </si>
   <si>
     <t>Прочие</t>
@@ -160,12 +160,16 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -173,13 +177,6 @@
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -282,18 +279,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -305,38 +302,35 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,10 +674,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF19"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F11" sqref="F11:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -714,7 +708,7 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:32" s="1" customFormat="1" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -724,189 +718,189 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:32" s="1" customFormat="1" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="10" t="s">
-        <v>31</v>
+    <row r="6" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:32" s="1" customFormat="1" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13" t="s">
+      <c r="K9" s="14"/>
+      <c r="L9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13" t="s">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13" t="s">
+      <c r="O9" s="14"/>
+      <c r="P9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13" t="s">
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13" t="s">
+      <c r="S9" s="14"/>
+      <c r="T9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13" t="s">
+      <c r="U9" s="14"/>
+      <c r="V9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13" t="s">
+      <c r="W9" s="14"/>
+      <c r="X9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13" t="s">
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13" t="s">
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="13"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE9" s="14"/>
       <c r="AF9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="I10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="K10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="M10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="O10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="Q10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="S10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="U10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="W10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="Y10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="AA10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AB10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="AC10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AD10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="AE10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="5" t="s">
         <v>32</v>
       </c>
@@ -968,10 +962,10 @@
         <v>2160.0099999999998</v>
       </c>
       <c r="Z11" s="6">
-        <v>115.24</v>
+        <v>272.83999999999997</v>
       </c>
       <c r="AA11" s="6">
-        <v>115.24</v>
+        <v>256.55</v>
       </c>
       <c r="AB11" s="6">
         <v>0</v>
@@ -986,17 +980,17 @@
         <v>0</v>
       </c>
       <c r="AF11" s="6">
-        <v>2920.04</v>
+        <v>3077.64</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1080,18 +1074,18 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="A13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="5">
-        <v>278763.90999999997</v>
+        <v>283826.83</v>
       </c>
       <c r="H13" s="5">
         <v>27856.74</v>
@@ -1148,35 +1142,35 @@
         <v>23736.1</v>
       </c>
       <c r="Z13" s="5">
-        <v>184264.22</v>
+        <v>185826.03</v>
       </c>
       <c r="AA13" s="5">
-        <v>24975.82</v>
+        <v>30038.75</v>
       </c>
       <c r="AB13" s="5">
-        <v>99150.33</v>
+        <v>99089.19</v>
       </c>
       <c r="AC13" s="6">
         <v>0</v>
       </c>
       <c r="AD13" s="5">
-        <v>69420.570000000007</v>
+        <v>68552.509999999995</v>
       </c>
       <c r="AE13" s="6">
         <v>0</v>
       </c>
       <c r="AF13" s="5">
-        <v>555642.6</v>
+        <v>556160.41</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="5" t="s">
         <v>35</v>
       </c>
@@ -1256,22 +1250,22 @@
         <v>0</v>
       </c>
       <c r="AF14" s="5">
-        <v>23193.57</v>
+        <v>25939</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="5">
-        <v>1100644.9099999999</v>
+        <v>1133912.02</v>
       </c>
       <c r="H15" s="5">
         <v>127326.99</v>
@@ -1331,7 +1325,7 @@
         <v>397265.3</v>
       </c>
       <c r="AA15" s="5">
-        <v>22942.35</v>
+        <v>56209.46</v>
       </c>
       <c r="AB15" s="5">
         <v>151045.98000000001</v>
@@ -1340,23 +1334,23 @@
         <v>0</v>
       </c>
       <c r="AD15" s="5">
-        <v>109067.09</v>
+        <v>111946.19</v>
       </c>
       <c r="AE15" s="6">
         <v>0</v>
       </c>
       <c r="AF15" s="5">
-        <v>1328845.6100000001</v>
+        <v>1338924</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="5" t="s">
         <v>37</v>
       </c>
@@ -1440,13 +1434,13 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="5" t="s">
         <v>38</v>
       </c>
@@ -1526,22 +1520,22 @@
         <v>0</v>
       </c>
       <c r="AF17" s="5">
-        <v>726347.76</v>
+        <v>726443.77</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="8">
-        <v>6259290.7300000004</v>
+        <v>6262960.04</v>
       </c>
       <c r="G18" s="8">
-        <v>1634524.81</v>
+        <v>1672996.15</v>
       </c>
       <c r="H18" s="8">
         <v>179256.33</v>
@@ -1598,84 +1592,57 @@
         <v>237078.62</v>
       </c>
       <c r="Z18" s="8">
-        <v>869102.55</v>
+        <v>870821.96</v>
       </c>
       <c r="AA18" s="8">
-        <v>48033.41</v>
+        <v>86504.75</v>
       </c>
       <c r="AB18" s="8">
-        <v>735997.03</v>
+        <v>735935.89</v>
       </c>
       <c r="AC18" s="9">
         <v>0</v>
       </c>
       <c r="AD18" s="8">
-        <v>3067701.6</v>
+        <v>3069712.63</v>
       </c>
       <c r="AE18" s="9">
         <v>0</v>
       </c>
       <c r="AF18" s="8">
-        <v>4913283.18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" ht="11.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
+        <v>4926878.42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 16.10.2022 18:58:46 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 23.10.2022 20:16:29 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101658A3-AFF6-BF4B-B600-A380C1DEAC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8B4F92-AECA-CA4F-8541-454FDF6778E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11800" yWindow="-26420" windowWidth="41020" windowHeight="14120" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32760" windowHeight="13660" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 24.10.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 23.10.2022</t>
+    <t>Граница для факта: 01.11.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 31.10.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -154,29 +154,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -279,18 +272,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -302,35 +295,32 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,7 +667,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -687,12 +677,11 @@
     <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.25" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" customWidth="1"/>
     <col min="8" max="21" width="14" style="1" customWidth="1"/>
     <col min="22" max="23" width="12.75" style="1" customWidth="1"/>
-    <col min="24" max="26" width="14" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.75" style="1" customWidth="1"/>
-    <col min="28" max="28" width="14" style="1" customWidth="1"/>
+    <col min="24" max="28" width="14" style="1" customWidth="1"/>
     <col min="29" max="29" width="8.25" style="1" customWidth="1"/>
     <col min="30" max="30" width="16.25" style="1" customWidth="1"/>
     <col min="31" max="31" width="8.25" style="1" customWidth="1"/>
@@ -707,8 +696,8 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" collapsed="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -718,19 +707,19 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:32" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="11" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -894,7 +883,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="15"/>
@@ -965,7 +954,7 @@
         <v>272.83999999999997</v>
       </c>
       <c r="AA11" s="6">
-        <v>256.55</v>
+        <v>272.83999999999997</v>
       </c>
       <c r="AB11" s="6">
         <v>0</v>
@@ -1085,7 +1074,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="5">
-        <v>283826.83</v>
+        <v>290337.39</v>
       </c>
       <c r="H13" s="5">
         <v>27856.74</v>
@@ -1142,25 +1131,25 @@
         <v>23736.1</v>
       </c>
       <c r="Z13" s="5">
-        <v>185826.03</v>
+        <v>36549.31</v>
       </c>
       <c r="AA13" s="5">
-        <v>30038.75</v>
+        <v>36549.31</v>
       </c>
       <c r="AB13" s="5">
-        <v>99089.19</v>
+        <v>175364.37</v>
       </c>
       <c r="AC13" s="6">
         <v>0</v>
       </c>
       <c r="AD13" s="5">
-        <v>68552.509999999995</v>
+        <v>82486.539999999994</v>
       </c>
       <c r="AE13" s="6">
         <v>0</v>
       </c>
       <c r="AF13" s="5">
-        <v>556160.41</v>
+        <v>508567.27</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1175,7 +1164,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="5">
-        <v>25569.97</v>
+        <v>28254.76</v>
       </c>
       <c r="H14" s="5">
         <v>2323.5300000000002</v>
@@ -1232,10 +1221,10 @@
         <v>2903.18</v>
       </c>
       <c r="Z14" s="5">
-        <v>1590.56</v>
-      </c>
-      <c r="AA14" s="6">
-        <v>0</v>
+        <v>2684.78</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>2684.78</v>
       </c>
       <c r="AB14" s="5">
         <v>1616.93</v>
@@ -1265,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="5">
-        <v>1133912.02</v>
+        <v>1244761.93</v>
       </c>
       <c r="H15" s="5">
         <v>127326.99</v>
@@ -1298,7 +1287,7 @@
         <v>117459.25</v>
       </c>
       <c r="R15" s="5">
-        <v>116723.53</v>
+        <v>114370.83</v>
       </c>
       <c r="S15" s="5">
         <v>116723.53</v>
@@ -1322,25 +1311,25 @@
         <v>202892.16</v>
       </c>
       <c r="Z15" s="5">
-        <v>397265.3</v>
+        <v>389070.69</v>
       </c>
       <c r="AA15" s="5">
-        <v>56209.46</v>
+        <v>167059.35999999999</v>
       </c>
       <c r="AB15" s="5">
-        <v>151045.98000000001</v>
+        <v>127569.51</v>
       </c>
       <c r="AC15" s="6">
         <v>0</v>
       </c>
       <c r="AD15" s="5">
-        <v>111946.19</v>
+        <v>118214.99</v>
       </c>
       <c r="AE15" s="6">
         <v>0</v>
       </c>
       <c r="AF15" s="5">
-        <v>1338924</v>
+        <v>1321104.97</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1445,7 +1434,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="5">
-        <v>56266.75</v>
+        <v>57695.1</v>
       </c>
       <c r="H17" s="5">
         <v>3173.02</v>
@@ -1504,8 +1493,8 @@
       <c r="Z17" s="5">
         <v>42103.24</v>
       </c>
-      <c r="AA17" s="6">
-        <v>0</v>
+      <c r="AA17" s="5">
+        <v>1428.35</v>
       </c>
       <c r="AB17" s="5">
         <v>399656.39</v>
@@ -1532,10 +1521,10 @@
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="8">
-        <v>6262960.04</v>
+        <v>6177231.7800000003</v>
       </c>
       <c r="G18" s="8">
-        <v>1672996.15</v>
+        <v>1794486.06</v>
       </c>
       <c r="H18" s="8">
         <v>179256.33</v>
@@ -1568,7 +1557,7 @@
         <v>195077.05</v>
       </c>
       <c r="R18" s="8">
-        <v>184730.85</v>
+        <v>182378.15</v>
       </c>
       <c r="S18" s="8">
         <v>184730.85</v>
@@ -1592,25 +1581,25 @@
         <v>237078.62</v>
       </c>
       <c r="Z18" s="8">
-        <v>870821.96</v>
+        <v>714444.87</v>
       </c>
       <c r="AA18" s="8">
-        <v>86504.75</v>
+        <v>207994.65</v>
       </c>
       <c r="AB18" s="8">
-        <v>735935.89</v>
+        <v>788734.6</v>
       </c>
       <c r="AC18" s="9">
         <v>0</v>
       </c>
       <c r="AD18" s="8">
-        <v>3069712.63</v>
+        <v>3089915.47</v>
       </c>
       <c r="AE18" s="9">
         <v>0</v>
       </c>
       <c r="AF18" s="8">
-        <v>4926878.42</v>
+        <v>4861466.25</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1631,7 @@
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 23.10.2022 20:16:29 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 31.10.2022 8:06:05 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8B4F92-AECA-CA4F-8541-454FDF6778E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668D94D5-281B-9E4A-9AEE-98AD4B9F8739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32760" windowHeight="13660" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21540" windowHeight="15480" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 01.11.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 31.10.2022</t>
+    <t>Граница для факта: 04.11.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 03.11.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -301,6 +301,15 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -312,15 +321,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,7 +667,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -677,12 +677,12 @@
     <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.25" style="1" customWidth="1"/>
     <col min="8" max="21" width="14" style="1" customWidth="1"/>
     <col min="22" max="23" width="12.75" style="1" customWidth="1"/>
-    <col min="24" max="28" width="14" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.25" style="1" customWidth="1"/>
+    <col min="24" max="27" width="14" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.25" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.75" style="1" customWidth="1"/>
     <col min="30" max="30" width="16.25" style="1" customWidth="1"/>
     <col min="31" max="31" width="8.25" style="1" customWidth="1"/>
     <col min="32" max="32" width="21" style="1" customWidth="1"/>
@@ -731,75 +731,75 @@
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="14" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14" t="s">
+      <c r="K9" s="12"/>
+      <c r="L9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14" t="s">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14" t="s">
+      <c r="O9" s="12"/>
+      <c r="P9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14" t="s">
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14" t="s">
+      <c r="S9" s="12"/>
+      <c r="T9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14" t="s">
+      <c r="U9" s="12"/>
+      <c r="V9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14" t="s">
+      <c r="W9" s="12"/>
+      <c r="X9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14" t="s">
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14" t="s">
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14" t="s">
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AE9" s="14"/>
+      <c r="AE9" s="12"/>
       <c r="AF9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
@@ -883,78 +883,78 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="5">
-        <v>1682.07</v>
+        <v>89.95</v>
       </c>
       <c r="H11" s="6">
         <v>89.95</v>
       </c>
       <c r="I11" s="6">
-        <v>89.95</v>
+        <v>78.12</v>
       </c>
       <c r="J11" s="6">
         <v>78.12</v>
       </c>
       <c r="K11" s="6">
-        <v>78.12</v>
+        <v>342.71</v>
       </c>
       <c r="L11" s="6">
         <v>342.71</v>
       </c>
       <c r="M11" s="6">
-        <v>342.71</v>
+        <v>281.45999999999998</v>
       </c>
       <c r="N11" s="6">
         <v>281.45999999999998</v>
       </c>
       <c r="O11" s="6">
-        <v>281.45999999999998</v>
+        <v>626.92999999999995</v>
       </c>
       <c r="P11" s="6">
         <v>626.92999999999995</v>
       </c>
       <c r="Q11" s="6">
-        <v>626.92999999999995</v>
+        <v>248.1</v>
       </c>
       <c r="R11" s="6">
         <v>248.1</v>
       </c>
       <c r="S11" s="6">
-        <v>248.1</v>
+        <v>348.73</v>
       </c>
       <c r="T11" s="6">
         <v>348.73</v>
       </c>
       <c r="U11" s="6">
-        <v>348.73</v>
+        <v>319.87</v>
       </c>
       <c r="V11" s="6">
         <v>319.87</v>
       </c>
       <c r="W11" s="6">
-        <v>319.87</v>
+        <v>2160.0099999999998</v>
       </c>
       <c r="X11" s="5">
         <v>2160.0099999999998</v>
       </c>
       <c r="Y11" s="5">
-        <v>2160.0099999999998</v>
+        <v>272.83999999999997</v>
       </c>
       <c r="Z11" s="6">
         <v>272.83999999999997</v>
       </c>
       <c r="AA11" s="6">
-        <v>272.83999999999997</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="6">
         <v>0</v>
@@ -966,20 +966,20 @@
         <v>0</v>
       </c>
       <c r="AE11" s="6">
-        <v>0</v>
+        <v>3077.64</v>
       </c>
       <c r="AF11" s="6">
-        <v>3077.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1063,18 +1063,18 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="5">
-        <v>290337.39</v>
+        <v>290704.03000000003</v>
       </c>
       <c r="H13" s="5">
         <v>27856.74</v>
@@ -1131,16 +1131,16 @@
         <v>23736.1</v>
       </c>
       <c r="Z13" s="5">
-        <v>36549.31</v>
+        <v>36615.699999999997</v>
       </c>
       <c r="AA13" s="5">
-        <v>36549.31</v>
+        <v>36615.699999999997</v>
       </c>
       <c r="AB13" s="5">
-        <v>175364.37</v>
-      </c>
-      <c r="AC13" s="6">
-        <v>0</v>
+        <v>175673.11</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>300.25</v>
       </c>
       <c r="AD13" s="5">
         <v>82486.539999999994</v>
@@ -1149,22 +1149,22 @@
         <v>0</v>
       </c>
       <c r="AF13" s="5">
-        <v>508567.27</v>
+        <v>508938.52</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="5">
-        <v>28254.76</v>
+        <v>28311.72</v>
       </c>
       <c r="H14" s="5">
         <v>2323.5300000000002</v>
@@ -1221,10 +1221,10 @@
         <v>2903.18</v>
       </c>
       <c r="Z14" s="5">
-        <v>2684.78</v>
+        <v>2741.74</v>
       </c>
       <c r="AA14" s="5">
-        <v>2684.78</v>
+        <v>2741.74</v>
       </c>
       <c r="AB14" s="5">
         <v>1616.93</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="5">
-        <v>2685.3</v>
+        <v>2628.34</v>
       </c>
       <c r="AE14" s="6">
         <v>0</v>
@@ -1243,18 +1243,18 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="5">
-        <v>1244761.93</v>
+        <v>1258783.24</v>
       </c>
       <c r="H15" s="5">
         <v>127326.99</v>
@@ -1293,7 +1293,7 @@
         <v>116723.53</v>
       </c>
       <c r="T15" s="5">
-        <v>102878.35</v>
+        <v>102869.62</v>
       </c>
       <c r="U15" s="5">
         <v>102878.35</v>
@@ -1311,35 +1311,35 @@
         <v>202892.16</v>
       </c>
       <c r="Z15" s="5">
-        <v>389070.69</v>
+        <v>177413.92</v>
       </c>
       <c r="AA15" s="5">
-        <v>167059.35999999999</v>
+        <v>175059.36</v>
       </c>
       <c r="AB15" s="5">
-        <v>127569.51</v>
-      </c>
-      <c r="AC15" s="6">
-        <v>0</v>
+        <v>321901.09000000003</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>6021.32</v>
       </c>
       <c r="AD15" s="5">
-        <v>118214.99</v>
+        <v>124705.63</v>
       </c>
       <c r="AE15" s="6">
         <v>0</v>
       </c>
       <c r="AF15" s="5">
-        <v>1321104.97</v>
+        <v>1316409.06</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="5" t="s">
         <v>37</v>
       </c>
@@ -1423,18 +1423,18 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="5">
-        <v>57695.1</v>
+        <v>74945.14</v>
       </c>
       <c r="H17" s="5">
         <v>3173.02</v>
@@ -1491,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="Z17" s="5">
-        <v>42103.24</v>
+        <v>18678.39</v>
       </c>
       <c r="AA17" s="5">
-        <v>1428.35</v>
+        <v>18678.39</v>
       </c>
       <c r="AB17" s="5">
-        <v>399656.39</v>
+        <v>422921.55</v>
       </c>
       <c r="AC17" s="6">
         <v>0</v>
       </c>
       <c r="AD17" s="5">
-        <v>413053.41</v>
+        <v>413213.1</v>
       </c>
       <c r="AE17" s="6">
         <v>0</v>
@@ -1513,18 +1513,18 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="8">
-        <v>6177231.7800000003</v>
+        <v>6166763.6200000001</v>
       </c>
       <c r="G18" s="8">
-        <v>1794486.06</v>
+        <v>1826181.01</v>
       </c>
       <c r="H18" s="8">
         <v>179256.33</v>
@@ -1563,7 +1563,7 @@
         <v>184730.85</v>
       </c>
       <c r="T18" s="8">
-        <v>168427.83</v>
+        <v>168419.09</v>
       </c>
       <c r="U18" s="8">
         <v>168424.29</v>
@@ -1581,57 +1581,57 @@
         <v>237078.62</v>
       </c>
       <c r="Z18" s="8">
-        <v>714444.87</v>
+        <v>479486.59</v>
       </c>
       <c r="AA18" s="8">
-        <v>207994.65</v>
+        <v>233368.04</v>
       </c>
       <c r="AB18" s="8">
-        <v>788734.6</v>
-      </c>
-      <c r="AC18" s="9">
-        <v>0</v>
+        <v>1006640.08</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>6321.56</v>
       </c>
       <c r="AD18" s="8">
-        <v>3089915.47</v>
+        <v>3096508.84</v>
       </c>
       <c r="AE18" s="9">
         <v>0</v>
       </c>
       <c r="AF18" s="8">
-        <v>4861466.25</v>
+        <v>4857141.5999999996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 31.10.2022 8:06:05 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 03.11.2022 16:55:46 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668D94D5-281B-9E4A-9AEE-98AD4B9F8739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1A5FEB-8096-0747-9027-2144BD01665B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21540" windowHeight="15480" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1540" yWindow="-29740" windowWidth="37300" windowHeight="15100" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Общий объем оплаченных денежных средств по договору (контракту) (тыс.руб. без НДС)</t>
+  </si>
+  <si>
+    <t>Метрологический отдел</t>
   </si>
   <si>
     <t>Научное отделение № 10 (НО № 10)</t>
@@ -667,7 +670,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -677,7 +680,8 @@
     <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.25" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="1" customWidth="1"/>
     <col min="8" max="21" width="14" style="1" customWidth="1"/>
     <col min="22" max="23" width="12.75" style="1" customWidth="1"/>
     <col min="24" max="27" width="14" style="1" customWidth="1"/>
@@ -884,77 +888,77 @@
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="5">
-        <v>89.95</v>
+        <v>1682.07</v>
       </c>
       <c r="H11" s="6">
         <v>89.95</v>
       </c>
       <c r="I11" s="6">
-        <v>78.12</v>
+        <v>89.95</v>
       </c>
       <c r="J11" s="6">
         <v>78.12</v>
       </c>
       <c r="K11" s="6">
-        <v>342.71</v>
+        <v>78.12</v>
       </c>
       <c r="L11" s="6">
         <v>342.71</v>
       </c>
       <c r="M11" s="6">
-        <v>281.45999999999998</v>
+        <v>342.71</v>
       </c>
       <c r="N11" s="6">
         <v>281.45999999999998</v>
       </c>
       <c r="O11" s="6">
-        <v>626.92999999999995</v>
+        <v>281.45999999999998</v>
       </c>
       <c r="P11" s="6">
         <v>626.92999999999995</v>
       </c>
       <c r="Q11" s="6">
-        <v>248.1</v>
+        <v>626.92999999999995</v>
       </c>
       <c r="R11" s="6">
         <v>248.1</v>
       </c>
       <c r="S11" s="6">
-        <v>348.73</v>
+        <v>248.1</v>
       </c>
       <c r="T11" s="6">
         <v>348.73</v>
       </c>
       <c r="U11" s="6">
-        <v>319.87</v>
+        <v>348.73</v>
       </c>
       <c r="V11" s="6">
         <v>319.87</v>
       </c>
       <c r="W11" s="6">
-        <v>2160.0099999999998</v>
+        <v>319.87</v>
       </c>
       <c r="X11" s="5">
         <v>2160.0099999999998</v>
       </c>
       <c r="Y11" s="5">
-        <v>272.83999999999997</v>
+        <v>2160.0099999999998</v>
       </c>
       <c r="Z11" s="6">
         <v>272.83999999999997</v>
       </c>
       <c r="AA11" s="6">
-        <v>0</v>
+        <v>272.83999999999997</v>
       </c>
       <c r="AB11" s="6">
         <v>0</v>
@@ -966,22 +970,22 @@
         <v>0</v>
       </c>
       <c r="AE11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="6">
         <v>3077.64</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="5">
         <v>1190.3699999999999</v>
@@ -1064,14 +1068,14 @@
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="5">
         <v>290704.03000000003</v>
@@ -1154,14 +1158,14 @@
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" s="5">
         <v>28311.72</v>
@@ -1244,14 +1248,14 @@
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="5">
         <v>1258783.24</v>
@@ -1334,14 +1338,14 @@
     </row>
     <row r="16" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" s="5">
         <v>167477.78</v>
@@ -1424,14 +1428,14 @@
     </row>
     <row r="17" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17" s="5">
         <v>74945.14</v>
@@ -1514,7 +1518,7 @@
     </row>
     <row r="18" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>

--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1A5FEB-8096-0747-9027-2144BD01665B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBCFC58-7975-6344-9C65-39A3A2131060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1540" yWindow="-29740" windowWidth="37300" windowHeight="15100" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4980" yWindow="-29320" windowWidth="25360" windowHeight="16000" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -42,10 +42,10 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 04.11.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 03.11.2022</t>
+    <t>Граница для факта: 12.11.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 11.11.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -108,9 +108,6 @@
     <t>Общий объем оплаченных денежных средств по договору (контракту) (тыс.руб. без НДС)</t>
   </si>
   <si>
-    <t>Метрологический отдел</t>
-  </si>
-  <si>
     <t>Научное отделение № 10 (НО № 10)</t>
   </si>
   <si>
@@ -133,24 +130,6 @@
   </si>
   <si>
     <t>Прочие</t>
-  </si>
-  <si>
-    <t>НО № 10</t>
-  </si>
-  <si>
-    <t>НО № 4</t>
-  </si>
-  <si>
-    <t>НО № 5 - ИЦ</t>
-  </si>
-  <si>
-    <t>НО № 7</t>
-  </si>
-  <si>
-    <t>НО № 8</t>
-  </si>
-  <si>
-    <t>НО № 9</t>
   </si>
 </sst>
 </file>
@@ -304,15 +283,6 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -324,6 +294,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,7 +649,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -680,13 +659,11 @@
     <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.25" style="1" customWidth="1"/>
     <col min="8" max="21" width="14" style="1" customWidth="1"/>
     <col min="22" max="23" width="12.75" style="1" customWidth="1"/>
-    <col min="24" max="27" width="14" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.25" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.75" style="1" customWidth="1"/>
+    <col min="24" max="28" width="14" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.75" style="1" customWidth="1"/>
     <col min="30" max="30" width="16.25" style="1" customWidth="1"/>
     <col min="31" max="31" width="8.25" style="1" customWidth="1"/>
     <col min="32" max="32" width="21" style="1" customWidth="1"/>
@@ -735,75 +712,75 @@
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12" t="s">
+      <c r="K9" s="14"/>
+      <c r="L9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12" t="s">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12" t="s">
+      <c r="O9" s="14"/>
+      <c r="P9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12" t="s">
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12" t="s">
+      <c r="S9" s="14"/>
+      <c r="T9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12" t="s">
+      <c r="U9" s="14"/>
+      <c r="V9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12" t="s">
+      <c r="W9" s="14"/>
+      <c r="X9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12" t="s">
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12" t="s">
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12" t="s">
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AE9" s="12"/>
+      <c r="AE9" s="14"/>
       <c r="AF9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
@@ -887,15 +864,15 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="5" t="s">
-        <v>33</v>
+      <c r="A11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="5">
+        <v>1682.07</v>
       </c>
       <c r="G11" s="5">
         <v>1682.07</v>
@@ -961,10 +938,10 @@
         <v>272.83999999999997</v>
       </c>
       <c r="AB11" s="6">
-        <v>0</v>
+        <v>59.36</v>
       </c>
       <c r="AC11" s="6">
-        <v>0</v>
+        <v>59.36</v>
       </c>
       <c r="AD11" s="6">
         <v>0</v>
@@ -973,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="AF11" s="6">
-        <v>3077.64</v>
+        <v>3137.01</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="5" t="s">
-        <v>34</v>
+      <c r="A12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="5">
+        <v>2467254.6</v>
       </c>
       <c r="G12" s="5">
         <v>1190.3699999999999</v>
@@ -1067,18 +1044,18 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="5" t="s">
-        <v>35</v>
+      <c r="A13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="5">
+        <v>548563.43999999994</v>
       </c>
       <c r="G13" s="5">
-        <v>290704.03000000003</v>
+        <v>290712.53000000003</v>
       </c>
       <c r="H13" s="5">
         <v>27856.74</v>
@@ -1144,7 +1121,7 @@
         <v>175673.11</v>
       </c>
       <c r="AC13" s="7">
-        <v>300.25</v>
+        <v>308.74</v>
       </c>
       <c r="AD13" s="5">
         <v>82486.539999999994</v>
@@ -1153,22 +1130,22 @@
         <v>0</v>
       </c>
       <c r="AF13" s="5">
-        <v>508938.52</v>
+        <v>508974.14</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="5" t="s">
-        <v>36</v>
+      <c r="A14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="5">
+        <v>32719.82</v>
       </c>
       <c r="G14" s="5">
-        <v>28311.72</v>
+        <v>30126.48</v>
       </c>
       <c r="H14" s="5">
         <v>2323.5300000000002</v>
@@ -1225,40 +1202,40 @@
         <v>2903.18</v>
       </c>
       <c r="Z14" s="5">
-        <v>2741.74</v>
+        <v>2803.11</v>
       </c>
       <c r="AA14" s="5">
-        <v>2741.74</v>
+        <v>2803.11</v>
       </c>
       <c r="AB14" s="5">
-        <v>1616.93</v>
-      </c>
-      <c r="AC14" s="6">
-        <v>0</v>
+        <v>1753.39</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>1753.39</v>
       </c>
       <c r="AD14" s="5">
-        <v>2628.34</v>
+        <v>2593.34</v>
       </c>
       <c r="AE14" s="6">
         <v>0</v>
       </c>
       <c r="AF14" s="5">
-        <v>25939</v>
+        <v>28623.78</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="5" t="s">
-        <v>37</v>
+      <c r="A15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="5">
+        <v>1700466.4</v>
       </c>
       <c r="G15" s="5">
-        <v>1258783.24</v>
+        <v>1272865.6399999999</v>
       </c>
       <c r="H15" s="5">
         <v>127326.99</v>
@@ -1321,10 +1298,10 @@
         <v>175059.36</v>
       </c>
       <c r="AB15" s="5">
-        <v>321901.09000000003</v>
+        <v>323007.58</v>
       </c>
       <c r="AC15" s="5">
-        <v>6021.32</v>
+        <v>20103.71</v>
       </c>
       <c r="AD15" s="5">
         <v>124705.63</v>
@@ -1333,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="AF15" s="5">
-        <v>1316409.06</v>
+        <v>1355206.29</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="5" t="s">
-        <v>38</v>
+      <c r="A16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="5">
+        <v>473416.18</v>
       </c>
       <c r="G16" s="5">
         <v>167477.78</v>
@@ -1404,38 +1381,38 @@
       <c r="Y16" s="5">
         <v>4196.8</v>
       </c>
-      <c r="Z16" s="5">
-        <v>243764</v>
+      <c r="Z16" s="6">
+        <v>0</v>
       </c>
       <c r="AA16" s="6">
         <v>0</v>
       </c>
       <c r="AB16" s="5">
-        <v>84527.4</v>
+        <v>44481.4</v>
       </c>
       <c r="AC16" s="6">
         <v>0</v>
       </c>
       <c r="AD16" s="5">
-        <v>7411</v>
+        <v>261457</v>
       </c>
       <c r="AE16" s="6">
         <v>0</v>
       </c>
       <c r="AF16" s="5">
-        <v>444172.48</v>
+        <v>422606.98</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="5" t="s">
-        <v>39</v>
+      <c r="A17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="5">
+        <v>911079.79</v>
       </c>
       <c r="G17" s="5">
         <v>74945.14</v>
@@ -1517,18 +1494,18 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="8">
-        <v>6166763.6200000001</v>
+        <v>6138328.3099999996</v>
       </c>
       <c r="G18" s="8">
-        <v>1826181.01</v>
+        <v>1842146.02</v>
       </c>
       <c r="H18" s="8">
         <v>179256.33</v>
@@ -1585,57 +1562,57 @@
         <v>237078.62</v>
       </c>
       <c r="Z18" s="8">
-        <v>479486.59</v>
+        <v>235783.96</v>
       </c>
       <c r="AA18" s="8">
-        <v>233368.04</v>
+        <v>233429.41</v>
       </c>
       <c r="AB18" s="8">
-        <v>1006640.08</v>
+        <v>967896.4</v>
       </c>
       <c r="AC18" s="8">
-        <v>6321.56</v>
+        <v>22225.21</v>
       </c>
       <c r="AD18" s="8">
-        <v>3096508.84</v>
+        <v>3350519.84</v>
       </c>
       <c r="AE18" s="9">
         <v>0</v>
       </c>
       <c r="AF18" s="8">
-        <v>4857141.5999999996</v>
+        <v>4877153.09</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 03.11.2022 16:55:46 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 11.11.2022 16:33:08 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBCFC58-7975-6344-9C65-39A3A2131060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CEB6F4-AE8C-4E4D-808D-DF4A4FDECE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4980" yWindow="-29320" windowWidth="25360" windowHeight="16000" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>Прочие</t>
+  </si>
+  <si>
+    <t>НО № 10</t>
+  </si>
+  <si>
+    <t>НО № 4</t>
+  </si>
+  <si>
+    <t>НО № 5 - ИЦ</t>
+  </si>
+  <si>
+    <t>НО № 7</t>
+  </si>
+  <si>
+    <t>НО № 8</t>
+  </si>
+  <si>
+    <t>НО № 9</t>
   </si>
 </sst>
 </file>
@@ -146,12 +164,14 @@
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -283,6 +303,15 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -294,15 +323,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,7 +669,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F11" sqref="F11:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -712,75 +732,75 @@
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="14" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14" t="s">
+      <c r="K9" s="12"/>
+      <c r="L9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14" t="s">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14" t="s">
+      <c r="O9" s="12"/>
+      <c r="P9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14" t="s">
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14" t="s">
+      <c r="S9" s="12"/>
+      <c r="T9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14" t="s">
+      <c r="U9" s="12"/>
+      <c r="V9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14" t="s">
+      <c r="W9" s="12"/>
+      <c r="X9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14" t="s">
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14" t="s">
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14" t="s">
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AE9" s="14"/>
+      <c r="AE9" s="12"/>
       <c r="AF9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
@@ -864,15 +884,15 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="5">
-        <v>1682.07</v>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="G11" s="5">
         <v>1682.07</v>
@@ -954,15 +974,15 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="5">
-        <v>2467254.6</v>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="G12" s="5">
         <v>1190.3699999999999</v>
@@ -1044,15 +1064,15 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="5">
-        <v>548563.43999999994</v>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="G13" s="5">
         <v>290712.53000000003</v>
@@ -1134,15 +1154,15 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="5">
-        <v>32719.82</v>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G14" s="5">
         <v>30126.48</v>
@@ -1224,15 +1244,15 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="5">
-        <v>1700466.4</v>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="G15" s="5">
         <v>1272865.6399999999</v>
@@ -1314,15 +1334,15 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="5">
-        <v>473416.18</v>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="G16" s="5">
         <v>167477.78</v>
@@ -1404,15 +1424,15 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="5">
-        <v>911079.79</v>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="G17" s="5">
         <v>74945.14</v>
@@ -1494,13 +1514,13 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="8">
         <v>6138328.3099999996</v>
       </c>
@@ -1585,6 +1605,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A9:E10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A18:E18"/>
@@ -1593,20 +1627,6 @@
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="A9:E10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D008F255-9590-5F43-A897-E087FB428E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DC1706-4118-A94B-BA70-1DC1A1AA0DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1660" yWindow="-23960" windowWidth="25140" windowHeight="14620" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27380" windowHeight="14940" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 19.11.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 18.11.2022</t>
+    <t>Граница для факта: 26.11.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 25.11.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -175,12 +175,14 @@
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -296,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -351,9 +353,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -702,8 +701,8 @@
   </sheetPr>
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -718,7 +717,7 @@
     <col min="9" max="22" width="14" style="1" customWidth="1"/>
     <col min="23" max="24" width="12.75" style="1" customWidth="1"/>
     <col min="25" max="29" width="14" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.75" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.5" style="1" customWidth="1"/>
     <col min="31" max="31" width="16.25" style="1" customWidth="1"/>
     <col min="32" max="32" width="8.25" style="1" customWidth="1"/>
     <col min="33" max="33" width="21" style="1" customWidth="1"/>
@@ -923,7 +922,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="17"/>
@@ -1000,10 +999,10 @@
         <v>272.83999999999997</v>
       </c>
       <c r="AC11" s="8">
-        <v>209.75</v>
+        <v>264.45999999999998</v>
       </c>
       <c r="AD11" s="8">
-        <v>135.02000000000001</v>
+        <v>245.6</v>
       </c>
       <c r="AE11" s="8">
         <v>0</v>
@@ -1012,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="AG11" s="8">
-        <v>4969.46</v>
+        <v>5024.17</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1023,11 +1022,11 @@
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="6">
-        <v>2467254.6</v>
+        <v>2467517.15</v>
       </c>
       <c r="H12" s="6">
         <v>1190.3699999999999</v>
@@ -1099,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="AE12" s="6">
-        <v>2466064.2200000002</v>
+        <v>2466326.7799999998</v>
       </c>
       <c r="AF12" s="7">
         <v>0</v>
       </c>
       <c r="AG12" s="6">
-        <v>1832161.12</v>
+        <v>1833223.3</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1116,14 +1115,14 @@
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="6">
-        <v>552959.44999999995</v>
+        <v>526183.31000000006</v>
       </c>
       <c r="H13" s="6">
-        <v>327596.65000000002</v>
+        <v>334864.09000000003</v>
       </c>
       <c r="I13" s="6">
         <v>27856.74</v>
@@ -1186,19 +1185,19 @@
         <v>36615.699999999997</v>
       </c>
       <c r="AC13" s="6">
-        <v>204475.69</v>
+        <v>180428.84</v>
       </c>
       <c r="AD13" s="6">
-        <v>37192.870000000003</v>
+        <v>44460.3</v>
       </c>
       <c r="AE13" s="6">
-        <v>58079.97</v>
+        <v>55350.68</v>
       </c>
       <c r="AF13" s="7">
         <v>0</v>
       </c>
       <c r="AG13" s="6">
-        <v>512454.31</v>
+        <v>491465.93</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1209,14 +1208,14 @@
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="6">
-        <v>32719.82</v>
+        <v>33815.599999999999</v>
       </c>
       <c r="H14" s="6">
-        <v>30126.48</v>
+        <v>31222.26</v>
       </c>
       <c r="I14" s="6">
         <v>2323.5300000000002</v>
@@ -1279,10 +1278,10 @@
         <v>2803.11</v>
       </c>
       <c r="AC14" s="6">
-        <v>1753.39</v>
+        <v>2849.18</v>
       </c>
       <c r="AD14" s="6">
-        <v>1753.39</v>
+        <v>2849.18</v>
       </c>
       <c r="AE14" s="6">
         <v>2593.34</v>
@@ -1291,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="6">
-        <v>28623.78</v>
+        <v>28786.28</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1302,14 +1301,14 @@
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="6">
         <v>1702484.81</v>
       </c>
       <c r="H15" s="6">
-        <v>1281422.6200000001</v>
+        <v>1296531.32</v>
       </c>
       <c r="I15" s="6">
         <v>127326.99</v>
@@ -1375,7 +1374,7 @@
         <v>325025.98</v>
       </c>
       <c r="AD15" s="6">
-        <v>28660.7</v>
+        <v>43769.4</v>
       </c>
       <c r="AE15" s="6">
         <v>124705.63</v>
@@ -1384,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="AG15" s="6">
-        <v>1355206.29</v>
+        <v>1356476.97</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1395,14 +1394,14 @@
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="6">
-        <v>473958.58</v>
+        <v>429477.18</v>
       </c>
       <c r="H16" s="6">
-        <v>168020.18</v>
+        <v>217820.18</v>
       </c>
       <c r="I16" s="6">
         <v>18486.099999999999</v>
@@ -1465,19 +1464,19 @@
         <v>0</v>
       </c>
       <c r="AC16" s="6">
-        <v>45023.8</v>
-      </c>
-      <c r="AD16" s="8">
-        <v>542.4</v>
+        <v>50342.400000000001</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>50342.400000000001</v>
       </c>
       <c r="AE16" s="6">
-        <v>261457</v>
+        <v>211657</v>
       </c>
       <c r="AF16" s="7">
         <v>0</v>
       </c>
       <c r="AG16" s="6">
-        <v>423149.38</v>
+        <v>378667.98</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1488,14 +1487,14 @@
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="6">
-        <v>911207.22</v>
+        <v>913149.02</v>
       </c>
       <c r="H17" s="6">
-        <v>75072.570000000007</v>
+        <v>85798.47</v>
       </c>
       <c r="I17" s="6">
         <v>3173.02</v>
@@ -1558,19 +1557,19 @@
         <v>18678.39</v>
       </c>
       <c r="AC17" s="6">
-        <v>423048.98</v>
-      </c>
-      <c r="AD17" s="8">
-        <v>127.43</v>
+        <v>425150.47</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>10853.33</v>
       </c>
       <c r="AE17" s="6">
-        <v>413213.1</v>
+        <v>413053.41</v>
       </c>
       <c r="AF17" s="7">
         <v>0</v>
       </c>
       <c r="AG17" s="6">
-        <v>726571.2</v>
+        <v>726394.31</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1583,10 +1582,10 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="9">
-        <v>6145562.9400000004</v>
+        <v>6077660.2599999998</v>
       </c>
       <c r="H18" s="9">
-        <v>1888332.62</v>
+        <v>1972441.03</v>
       </c>
       <c r="I18" s="9">
         <v>179256.33</v>
@@ -1649,19 +1648,19 @@
         <v>233429.41</v>
       </c>
       <c r="AC18" s="9">
-        <v>999537.6</v>
+        <v>984061.34</v>
       </c>
       <c r="AD18" s="9">
-        <v>68411.81</v>
+        <v>152520.22</v>
       </c>
       <c r="AE18" s="9">
-        <v>3326113.26</v>
+        <v>3273686.84</v>
       </c>
       <c r="AF18" s="10">
         <v>0</v>
       </c>
       <c r="AG18" s="9">
-        <v>4883135.54</v>
+        <v>4820038.95</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +1693,7 @@
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 18.11.2022 18:53:38 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 25.11.2022 17:05:42 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DC1706-4118-A94B-BA70-1DC1A1AA0DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5AB809-C451-1B4B-88B7-D8952487DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27380" windowHeight="14940" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="2800" windowWidth="22260" windowHeight="12440" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 26.11.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 25.11.2022</t>
+    <t>Граница для факта: 03.12.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 02.12.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -160,29 +160,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -298,18 +291,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -324,38 +317,32 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,10 +703,9 @@
     <col min="7" max="8" width="16.25" style="1" customWidth="1"/>
     <col min="9" max="22" width="14" style="1" customWidth="1"/>
     <col min="23" max="24" width="12.75" style="1" customWidth="1"/>
-    <col min="25" max="29" width="14" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5" style="1" customWidth="1"/>
+    <col min="25" max="30" width="14" style="1" customWidth="1"/>
     <col min="31" max="31" width="16.25" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.25" style="1" customWidth="1"/>
+    <col min="32" max="32" width="11.75" style="1" customWidth="1"/>
     <col min="33" max="33" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -766,79 +752,79 @@
     </row>
     <row r="8" spans="1:33" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16" t="s">
+      <c r="J9" s="15"/>
+      <c r="K9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16" t="s">
+      <c r="L9" s="15"/>
+      <c r="M9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16" t="s">
+      <c r="N9" s="15"/>
+      <c r="O9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16" t="s">
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16" t="s">
+      <c r="R9" s="15"/>
+      <c r="S9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16" t="s">
+      <c r="T9" s="15"/>
+      <c r="U9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16" t="s">
+      <c r="V9" s="15"/>
+      <c r="W9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16" t="s">
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16" t="s">
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16" t="s">
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16" t="s">
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AF9" s="16"/>
+      <c r="AF9" s="15"/>
       <c r="AG9" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="4" t="s">
         <v>23</v>
       </c>
@@ -922,13 +908,13 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="5" t="s">
         <v>26</v>
       </c>
@@ -999,29 +985,29 @@
         <v>272.83999999999997</v>
       </c>
       <c r="AC11" s="8">
-        <v>264.45999999999998</v>
+        <v>356.18</v>
       </c>
       <c r="AD11" s="8">
-        <v>245.6</v>
+        <v>356.18</v>
       </c>
       <c r="AE11" s="8">
-        <v>0</v>
+        <v>70.77</v>
       </c>
       <c r="AF11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>5024.17</v>
+        <v>70.77</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>5186.67</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="5" t="s">
         <v>28</v>
       </c>
@@ -1108,21 +1094,21 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="6">
-        <v>526183.31000000006</v>
+        <v>526387.93000000005</v>
       </c>
       <c r="H13" s="6">
-        <v>334864.09000000003</v>
+        <v>335988.83</v>
       </c>
       <c r="I13" s="6">
         <v>27856.74</v>
@@ -1185,34 +1171,34 @@
         <v>36615.699999999997</v>
       </c>
       <c r="AC13" s="6">
-        <v>180428.84</v>
+        <v>45585.04</v>
       </c>
       <c r="AD13" s="6">
-        <v>44460.3</v>
+        <v>45585.04</v>
       </c>
       <c r="AE13" s="6">
-        <v>55350.68</v>
+        <v>190399.1</v>
       </c>
       <c r="AF13" s="7">
         <v>0</v>
       </c>
       <c r="AG13" s="6">
-        <v>491465.93</v>
+        <v>491776.73</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="6">
-        <v>33815.599999999999</v>
+        <v>33894.71</v>
       </c>
       <c r="H14" s="6">
         <v>31222.26</v>
@@ -1284,23 +1270,23 @@
         <v>2849.18</v>
       </c>
       <c r="AE14" s="6">
-        <v>2593.34</v>
+        <v>2672.44</v>
       </c>
       <c r="AF14" s="7">
         <v>0</v>
       </c>
       <c r="AG14" s="6">
-        <v>28786.28</v>
+        <v>28865.39</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="5" t="s">
         <v>34</v>
       </c>
@@ -1308,7 +1294,7 @@
         <v>1702484.81</v>
       </c>
       <c r="H15" s="6">
-        <v>1296531.32</v>
+        <v>1400243.02</v>
       </c>
       <c r="I15" s="6">
         <v>127326.99</v>
@@ -1371,29 +1357,29 @@
         <v>175059.36</v>
       </c>
       <c r="AC15" s="6">
-        <v>325025.98</v>
+        <v>145849.1</v>
       </c>
       <c r="AD15" s="6">
-        <v>43769.4</v>
+        <v>145840.37</v>
       </c>
       <c r="AE15" s="6">
-        <v>124705.63</v>
-      </c>
-      <c r="AF15" s="7">
-        <v>0</v>
+        <v>303882.52</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>1640.73</v>
       </c>
       <c r="AG15" s="6">
-        <v>1356476.97</v>
+        <v>1376593.17</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1401,7 +1387,7 @@
         <v>429477.18</v>
       </c>
       <c r="H16" s="6">
-        <v>217820.18</v>
+        <v>285220.18</v>
       </c>
       <c r="I16" s="6">
         <v>18486.099999999999</v>
@@ -1464,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="AC16" s="6">
-        <v>50342.400000000001</v>
+        <v>117742.39999999999</v>
       </c>
       <c r="AD16" s="6">
-        <v>50342.400000000001</v>
+        <v>117742.39999999999</v>
       </c>
       <c r="AE16" s="6">
-        <v>211657</v>
+        <v>144257</v>
       </c>
       <c r="AF16" s="7">
         <v>0</v>
@@ -1480,21 +1466,21 @@
       </c>
     </row>
     <row r="17" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="6">
-        <v>913149.02</v>
+        <v>131527.48000000001</v>
       </c>
       <c r="H17" s="6">
-        <v>85798.47</v>
+        <v>126438.02</v>
       </c>
       <c r="I17" s="6">
         <v>3173.02</v>
@@ -1557,35 +1543,35 @@
         <v>18678.39</v>
       </c>
       <c r="AC17" s="6">
-        <v>425150.47</v>
+        <v>51368.53</v>
       </c>
       <c r="AD17" s="6">
-        <v>10853.33</v>
+        <v>51368.53</v>
       </c>
       <c r="AE17" s="6">
-        <v>413053.41</v>
-      </c>
-      <c r="AF17" s="7">
-        <v>0</v>
+        <v>5213.8</v>
+      </c>
+      <c r="AF17" s="8">
+        <v>124.35</v>
       </c>
       <c r="AG17" s="6">
-        <v>726394.31</v>
+        <v>101397.57</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="9">
-        <v>6077660.2599999998</v>
+        <v>5296484.93</v>
       </c>
       <c r="H18" s="9">
-        <v>1972441.03</v>
+        <v>2185498.36</v>
       </c>
       <c r="I18" s="9">
         <v>179256.33</v>
@@ -1648,19 +1634,19 @@
         <v>233429.41</v>
       </c>
       <c r="AC18" s="9">
-        <v>984061.34</v>
+        <v>363750.44</v>
       </c>
       <c r="AD18" s="9">
-        <v>152520.22</v>
+        <v>363741.7</v>
       </c>
       <c r="AE18" s="9">
-        <v>3273686.84</v>
-      </c>
-      <c r="AF18" s="10">
-        <v>0</v>
+        <v>3112822.42</v>
+      </c>
+      <c r="AF18" s="9">
+        <v>1835.85</v>
       </c>
       <c r="AG18" s="9">
-        <v>4820038.95</v>
+        <v>4215710.8</v>
       </c>
     </row>
   </sheetData>
@@ -1693,7 +1679,7 @@
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 25.11.2022 17:05:42 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 02.12.2022 16:10:11 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5AB809-C451-1B4B-88B7-D8952487DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18BEEBB-BC5C-2F46-A367-E41A88877C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2800" windowWidth="22260" windowHeight="12440" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5140" yWindow="1940" windowWidth="22840" windowHeight="14320" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 03.12.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 02.12.2022</t>
+    <t>Граница для факта: 10.12.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 09.12.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -689,7 +689,7 @@
   <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+      <selection activeCell="I11" sqref="I11:AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -703,9 +703,8 @@
     <col min="7" max="8" width="16.25" style="1" customWidth="1"/>
     <col min="9" max="22" width="14" style="1" customWidth="1"/>
     <col min="23" max="24" width="12.75" style="1" customWidth="1"/>
-    <col min="25" max="30" width="14" style="1" customWidth="1"/>
-    <col min="31" max="31" width="16.25" style="1" customWidth="1"/>
-    <col min="32" max="32" width="11.75" style="1" customWidth="1"/>
+    <col min="25" max="31" width="14" style="1" customWidth="1"/>
+    <col min="32" max="32" width="12.75" style="1" customWidth="1"/>
     <col min="33" max="33" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -991,13 +990,13 @@
         <v>356.18</v>
       </c>
       <c r="AE11" s="8">
-        <v>70.77</v>
+        <v>228.61</v>
       </c>
       <c r="AF11" s="8">
-        <v>70.77</v>
+        <v>228.61</v>
       </c>
       <c r="AG11" s="6">
-        <v>5186.67</v>
+        <v>5344.51</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1012,10 +1011,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="6">
-        <v>2467517.15</v>
+        <v>49452.93</v>
       </c>
       <c r="H12" s="6">
-        <v>1190.3699999999999</v>
+        <v>1452.93</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1084,13 +1083,13 @@
         <v>0</v>
       </c>
       <c r="AE12" s="6">
-        <v>2466326.7799999998</v>
-      </c>
-      <c r="AF12" s="7">
-        <v>0</v>
+        <v>48262.559999999998</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>262.56</v>
       </c>
       <c r="AG12" s="6">
-        <v>1833223.3</v>
+        <v>39852.93</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1105,10 +1104,10 @@
         <v>30</v>
       </c>
       <c r="G13" s="6">
-        <v>526387.93000000005</v>
+        <v>528829.41</v>
       </c>
       <c r="H13" s="6">
-        <v>335988.83</v>
+        <v>346343.15</v>
       </c>
       <c r="I13" s="6">
         <v>27856.74</v>
@@ -1171,19 +1170,19 @@
         <v>36615.699999999997</v>
       </c>
       <c r="AC13" s="6">
-        <v>45585.04</v>
+        <v>45166.48</v>
       </c>
       <c r="AD13" s="6">
-        <v>45585.04</v>
+        <v>45166.48</v>
       </c>
       <c r="AE13" s="6">
-        <v>190399.1</v>
-      </c>
-      <c r="AF13" s="7">
-        <v>0</v>
+        <v>193259.14</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>10772.89</v>
       </c>
       <c r="AG13" s="6">
-        <v>491776.73</v>
+        <v>494504.42</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1201,7 +1200,7 @@
         <v>33894.71</v>
       </c>
       <c r="H14" s="6">
-        <v>31222.26</v>
+        <v>31472.959999999999</v>
       </c>
       <c r="I14" s="6">
         <v>2323.5300000000002</v>
@@ -1264,19 +1263,19 @@
         <v>2803.11</v>
       </c>
       <c r="AC14" s="6">
-        <v>2849.18</v>
+        <v>3099.87</v>
       </c>
       <c r="AD14" s="6">
-        <v>2849.18</v>
+        <v>3099.87</v>
       </c>
       <c r="AE14" s="6">
-        <v>2672.44</v>
+        <v>2421.75</v>
       </c>
       <c r="AF14" s="7">
         <v>0</v>
       </c>
       <c r="AG14" s="6">
-        <v>28865.39</v>
+        <v>31552.06</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1291,7 +1290,7 @@
         <v>34</v>
       </c>
       <c r="G15" s="6">
-        <v>1702484.81</v>
+        <v>1678978.67</v>
       </c>
       <c r="H15" s="6">
         <v>1400243.02</v>
@@ -1363,13 +1362,13 @@
         <v>145840.37</v>
       </c>
       <c r="AE15" s="6">
-        <v>303882.52</v>
+        <v>280376.38</v>
       </c>
       <c r="AF15" s="6">
         <v>1640.73</v>
       </c>
       <c r="AG15" s="6">
-        <v>1376593.17</v>
+        <v>1365095.39</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1384,10 +1383,10 @@
         <v>36</v>
       </c>
       <c r="G16" s="6">
-        <v>429477.18</v>
+        <v>428977.18</v>
       </c>
       <c r="H16" s="6">
-        <v>285220.18</v>
+        <v>382020.18</v>
       </c>
       <c r="I16" s="6">
         <v>18486.099999999999</v>
@@ -1450,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="AC16" s="6">
-        <v>117742.39999999999</v>
+        <v>214542.4</v>
       </c>
       <c r="AD16" s="6">
-        <v>117742.39999999999</v>
+        <v>214542.4</v>
       </c>
       <c r="AE16" s="6">
-        <v>144257</v>
+        <v>46957</v>
       </c>
       <c r="AF16" s="7">
         <v>0</v>
       </c>
       <c r="AG16" s="6">
-        <v>378667.98</v>
+        <v>401607.98</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1477,10 +1476,10 @@
         <v>38</v>
       </c>
       <c r="G17" s="6">
-        <v>131527.48000000001</v>
+        <v>131806.41</v>
       </c>
       <c r="H17" s="6">
-        <v>126438.02</v>
+        <v>126716.96</v>
       </c>
       <c r="I17" s="6">
         <v>3173.02</v>
@@ -1549,13 +1548,13 @@
         <v>51368.53</v>
       </c>
       <c r="AE17" s="6">
-        <v>5213.8</v>
+        <v>5492.74</v>
       </c>
       <c r="AF17" s="8">
-        <v>124.35</v>
+        <v>403.28</v>
       </c>
       <c r="AG17" s="6">
-        <v>101397.57</v>
+        <v>105301.21</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1568,10 +1567,10 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="9">
-        <v>5296484.93</v>
+        <v>2857292.82</v>
       </c>
       <c r="H18" s="9">
-        <v>2185498.36</v>
+        <v>2293602.71</v>
       </c>
       <c r="I18" s="9">
         <v>179256.33</v>
@@ -1634,19 +1633,19 @@
         <v>233429.41</v>
       </c>
       <c r="AC18" s="9">
-        <v>363750.44</v>
+        <v>460382.57</v>
       </c>
       <c r="AD18" s="9">
-        <v>363741.7</v>
+        <v>460373.84</v>
       </c>
       <c r="AE18" s="9">
-        <v>3112822.42</v>
+        <v>576998.17000000004</v>
       </c>
       <c r="AF18" s="9">
-        <v>1835.85</v>
+        <v>13308.06</v>
       </c>
       <c r="AG18" s="9">
-        <v>4215710.8</v>
+        <v>2443258.4900000002</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +1678,7 @@
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 02.12.2022 16:10:11 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 09.12.2022 15:16:56 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18BEEBB-BC5C-2F46-A367-E41A88877C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EC72DB-E8DD-9D49-8111-8D17B4EAA8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="1940" windowWidth="22840" windowHeight="14320" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="14120" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 10.12.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 09.12.2022</t>
+    <t>Граница для факта: 17.12.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 16.12.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -160,22 +160,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -291,18 +298,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -317,32 +324,35 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,8 +698,8 @@
   </sheetPr>
   <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:AF11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AF11" sqref="G11:AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -907,7 +917,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="16"/>
@@ -990,13 +1000,13 @@
         <v>356.18</v>
       </c>
       <c r="AE11" s="8">
-        <v>228.61</v>
+        <v>329.18</v>
       </c>
       <c r="AF11" s="8">
-        <v>228.61</v>
-      </c>
-      <c r="AG11" s="6">
-        <v>5344.51</v>
+        <v>329.18</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>5445.07</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1104,10 +1114,10 @@
         <v>30</v>
       </c>
       <c r="G13" s="6">
-        <v>528829.41</v>
+        <v>505469.58</v>
       </c>
       <c r="H13" s="6">
-        <v>346343.15</v>
+        <v>361788.54</v>
       </c>
       <c r="I13" s="6">
         <v>27856.74</v>
@@ -1176,13 +1186,13 @@
         <v>45166.48</v>
       </c>
       <c r="AE13" s="6">
-        <v>193259.14</v>
+        <v>169899.32</v>
       </c>
       <c r="AF13" s="6">
-        <v>10772.89</v>
+        <v>26218.28</v>
       </c>
       <c r="AG13" s="6">
-        <v>494504.42</v>
+        <v>478058</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1200,7 +1210,7 @@
         <v>33894.71</v>
       </c>
       <c r="H14" s="6">
-        <v>31472.959999999999</v>
+        <v>31555.32</v>
       </c>
       <c r="I14" s="6">
         <v>2323.5300000000002</v>
@@ -1271,8 +1281,8 @@
       <c r="AE14" s="6">
         <v>2421.75</v>
       </c>
-      <c r="AF14" s="7">
-        <v>0</v>
+      <c r="AF14" s="8">
+        <v>82.36</v>
       </c>
       <c r="AG14" s="6">
         <v>31552.06</v>
@@ -1290,10 +1300,10 @@
         <v>34</v>
       </c>
       <c r="G15" s="6">
-        <v>1678978.67</v>
+        <v>1584432.77</v>
       </c>
       <c r="H15" s="6">
-        <v>1400243.02</v>
+        <v>1400652.42</v>
       </c>
       <c r="I15" s="6">
         <v>127326.99</v>
@@ -1362,13 +1372,13 @@
         <v>145840.37</v>
       </c>
       <c r="AE15" s="6">
-        <v>280376.38</v>
+        <v>185830.48</v>
       </c>
       <c r="AF15" s="6">
-        <v>1640.73</v>
+        <v>2050.13</v>
       </c>
       <c r="AG15" s="6">
-        <v>1365095.39</v>
+        <v>1352504.4</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1383,10 +1393,10 @@
         <v>36</v>
       </c>
       <c r="G16" s="6">
-        <v>428977.18</v>
+        <v>429237.18</v>
       </c>
       <c r="H16" s="6">
-        <v>382020.18</v>
+        <v>382280.18</v>
       </c>
       <c r="I16" s="6">
         <v>18486.099999999999</v>
@@ -1455,13 +1465,13 @@
         <v>214542.4</v>
       </c>
       <c r="AE16" s="6">
-        <v>46957</v>
-      </c>
-      <c r="AF16" s="7">
-        <v>0</v>
+        <v>47217</v>
+      </c>
+      <c r="AF16" s="8">
+        <v>260</v>
       </c>
       <c r="AG16" s="6">
-        <v>401607.98</v>
+        <v>401867.98</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1479,7 +1489,7 @@
         <v>131806.41</v>
       </c>
       <c r="H17" s="6">
-        <v>126716.96</v>
+        <v>131806.41</v>
       </c>
       <c r="I17" s="6">
         <v>3173.02</v>
@@ -1550,8 +1560,8 @@
       <c r="AE17" s="6">
         <v>5492.74</v>
       </c>
-      <c r="AF17" s="8">
-        <v>403.28</v>
+      <c r="AF17" s="6">
+        <v>5492.74</v>
       </c>
       <c r="AG17" s="6">
         <v>105301.21</v>
@@ -1567,10 +1577,10 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="9">
-        <v>2857292.82</v>
+        <v>2739747.66</v>
       </c>
       <c r="H18" s="9">
-        <v>2293602.71</v>
+        <v>2314989.9</v>
       </c>
       <c r="I18" s="9">
         <v>179256.33</v>
@@ -1639,13 +1649,13 @@
         <v>460373.84</v>
       </c>
       <c r="AE18" s="9">
-        <v>576998.17000000004</v>
+        <v>459453.02</v>
       </c>
       <c r="AF18" s="9">
-        <v>13308.06</v>
+        <v>34695.25</v>
       </c>
       <c r="AG18" s="9">
-        <v>2443258.4900000002</v>
+        <v>2414581.65</v>
       </c>
     </row>
   </sheetData>
@@ -1678,7 +1688,7 @@
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 09.12.2022 15:16:56 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 16.12.2022 17:03:38 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2022/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EC72DB-E8DD-9D49-8111-8D17B4EAA8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B21266-167F-DE44-B3E4-7EAC79718F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="14120" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31700" windowHeight="13600" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>Период отчета: 01.01.2022 - 31.12.2022</t>
   </si>
   <si>
-    <t>Граница для факта: 17.12.2022</t>
-  </si>
-  <si>
-    <t>Текущая дата: 16.12.2022</t>
+    <t>Граница для факта: 23.12.2022</t>
+  </si>
+  <si>
+    <t>Текущая дата: 22.12.2022</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -160,29 +160,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -298,18 +291,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -324,35 +317,32 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,7 +689,7 @@
   <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AF11" sqref="G11:AF11"/>
+      <selection activeCell="A18" sqref="A18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -917,7 +907,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="16"/>
@@ -1000,13 +990,13 @@
         <v>356.18</v>
       </c>
       <c r="AE11" s="8">
-        <v>329.18</v>
+        <v>415.55</v>
       </c>
       <c r="AF11" s="8">
-        <v>329.18</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>5445.07</v>
+        <v>415.55</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>5531.44</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1021,7 +1011,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="6">
-        <v>49452.93</v>
+        <v>1452.93</v>
       </c>
       <c r="H12" s="6">
         <v>1452.93</v>
@@ -1092,14 +1082,14 @@
       <c r="AD12" s="7">
         <v>0</v>
       </c>
-      <c r="AE12" s="6">
-        <v>48262.559999999998</v>
+      <c r="AE12" s="8">
+        <v>262.56</v>
       </c>
       <c r="AF12" s="8">
         <v>262.56</v>
       </c>
       <c r="AG12" s="6">
-        <v>39852.93</v>
+        <v>1452.93</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1114,10 +1104,10 @@
         <v>30</v>
       </c>
       <c r="G13" s="6">
-        <v>505469.58</v>
+        <v>522230.13</v>
       </c>
       <c r="H13" s="6">
-        <v>361788.54</v>
+        <v>399447.32</v>
       </c>
       <c r="I13" s="6">
         <v>27856.74</v>
@@ -1186,13 +1176,13 @@
         <v>45166.48</v>
       </c>
       <c r="AE13" s="6">
-        <v>169899.32</v>
+        <v>186659.87</v>
       </c>
       <c r="AF13" s="6">
-        <v>26218.28</v>
+        <v>63877.06</v>
       </c>
       <c r="AG13" s="6">
-        <v>478058</v>
+        <v>494793.27</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1300,10 +1290,10 @@
         <v>34</v>
       </c>
       <c r="G15" s="6">
-        <v>1584432.77</v>
+        <v>1586318.71</v>
       </c>
       <c r="H15" s="6">
-        <v>1400652.42</v>
+        <v>1402538.36</v>
       </c>
       <c r="I15" s="6">
         <v>127326.99</v>
@@ -1372,13 +1362,13 @@
         <v>145840.37</v>
       </c>
       <c r="AE15" s="6">
-        <v>185830.48</v>
+        <v>187716.42</v>
       </c>
       <c r="AF15" s="6">
-        <v>2050.13</v>
+        <v>3936.07</v>
       </c>
       <c r="AG15" s="6">
-        <v>1352504.4</v>
+        <v>1354332.89</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1393,7 +1383,7 @@
         <v>36</v>
       </c>
       <c r="G16" s="6">
-        <v>429237.18</v>
+        <v>422326.18</v>
       </c>
       <c r="H16" s="6">
         <v>382280.18</v>
@@ -1465,13 +1455,13 @@
         <v>214542.4</v>
       </c>
       <c r="AE16" s="6">
-        <v>47217</v>
+        <v>40306</v>
       </c>
       <c r="AF16" s="8">
         <v>260</v>
       </c>
       <c r="AG16" s="6">
-        <v>401867.98</v>
+        <v>414316.98</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="11" customHeight="1" x14ac:dyDescent="0.15">
@@ -1577,10 +1567,10 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="9">
-        <v>2739747.66</v>
+        <v>2703569.52</v>
       </c>
       <c r="H18" s="9">
-        <v>2314989.9</v>
+        <v>2354620.98</v>
       </c>
       <c r="I18" s="9">
         <v>179256.33</v>
@@ -1649,13 +1639,13 @@
         <v>460373.84</v>
       </c>
       <c r="AE18" s="9">
-        <v>459453.02</v>
+        <v>423274.88</v>
       </c>
       <c r="AF18" s="9">
-        <v>34695.25</v>
+        <v>74326.34</v>
       </c>
       <c r="AG18" s="9">
-        <v>2414581.65</v>
+        <v>2407280.7799999998</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1678,7 @@
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Arial,normal"&amp;8Реестр контрактов:  1 января 2022 г. - 31 декабря 2022 г. страница &amp;P из &amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 16.12.2022 17:03:38 Пользователь: Авдеев Валентин Васильевич</oddFooter>
+    <oddFooter>&amp;R&amp;"Arial,normal"&amp;8Отчет сформирован 22.12.2022 18:16:18 Пользователь: Авдеев Валентин Васильевич</oddFooter>
   </headerFooter>
 </worksheet>
 </file>